--- a/SOM/NewSomExperiment.xlsx
+++ b/SOM/NewSomExperiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\Research\Research Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JupyterDoc\SOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3469F-2938-46B2-9A60-73205B457F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC24205-8516-40C9-9762-78E0F7C484AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="13023" activeTab="3" xr2:uid="{C2EE1D98-ABDB-4289-85B0-BDC7FA1A4C31}"/>
+    <workbookView xWindow="24104" yWindow="-13" windowWidth="24092" windowHeight="12923" activeTab="3" xr2:uid="{C2EE1D98-ABDB-4289-85B0-BDC7FA1A4C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="241">
   <si>
     <t>DataSet</t>
   </si>
@@ -1052,6 +1052,12 @@
   </si>
   <si>
     <t>nmi</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0479</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1430,9 +1436,6 @@
     <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1442,28 +1445,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,28 +1496,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,15 +1533,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,14 +1556,44 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2117,7 +2150,7 @@
       <c r="K3" s="19">
         <v>0.99</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -2126,7 +2159,7 @@
       <c r="O3" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="81" t="s">
         <v>36</v>
       </c>
       <c r="Q3" s="1">
@@ -2140,16 +2173,16 @@
         <v>0.3792675356921168</v>
       </c>
       <c r="X3" s="26"/>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="79">
+      <c r="Z3" s="76">
         <v>0.5</v>
       </c>
-      <c r="AA3" s="77" t="s">
+      <c r="AA3" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="79">
+      <c r="AB3" s="76">
         <v>12</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -2170,13 +2203,13 @@
       </c>
       <c r="AH3" s="26"/>
       <c r="AM3" s="26"/>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="75">
+      <c r="AO3" s="74">
         <v>30</v>
       </c>
-      <c r="AP3" s="75">
+      <c r="AP3" s="74">
         <v>60</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -2202,14 +2235,14 @@
       <c r="K4" s="19">
         <v>1</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="75"/>
       <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="P4" s="96"/>
+      <c r="P4" s="82"/>
       <c r="Q4" s="1">
         <v>0.72599999999999998</v>
       </c>
@@ -2221,10 +2254,10 @@
         <v>0.17586776859504136</v>
       </c>
       <c r="X4" s="26"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="79"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="76"/>
       <c r="AC4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2243,9 +2276,9 @@
       </c>
       <c r="AH4" s="26"/>
       <c r="AM4" s="26"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
       <c r="AQ4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2269,14 +2302,14 @@
       <c r="K5" s="19">
         <v>0.99</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="2">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="P5" s="97"/>
+      <c r="P5" s="83"/>
       <c r="Q5" s="1">
         <v>0.60619999999999996</v>
       </c>
@@ -2288,16 +2321,16 @@
         <v>0.54651930056087106</v>
       </c>
       <c r="X5" s="26"/>
-      <c r="Y5" s="75" t="s">
+      <c r="Y5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="79">
+      <c r="Z5" s="76">
         <v>0.5</v>
       </c>
-      <c r="AA5" s="77" t="s">
+      <c r="AA5" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="79">
+      <c r="AB5" s="76">
         <v>30</v>
       </c>
       <c r="AC5" s="1" t="s">
@@ -2318,9 +2351,9 @@
       </c>
       <c r="AH5" s="26"/>
       <c r="AM5" s="26"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
       <c r="AQ5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2364,7 @@
       <c r="AT5" s="26"/>
     </row>
     <row r="6" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="76" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2346,7 +2379,7 @@
       <c r="K6" s="20">
         <v>0</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="76" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2355,7 +2388,7 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="95"/>
+      <c r="P6" s="84"/>
       <c r="Q6" s="1">
         <v>0.76870000000000005</v>
       </c>
@@ -2367,10 +2400,10 @@
         <v>0.26707428125406518</v>
       </c>
       <c r="X6" s="26"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="79"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="76"/>
       <c r="AC6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2389,13 +2422,13 @@
       </c>
       <c r="AH6" s="26"/>
       <c r="AM6" s="26"/>
-      <c r="AN6" s="79" t="s">
+      <c r="AN6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="AO6" s="75">
+      <c r="AO6" s="74">
         <v>30</v>
       </c>
-      <c r="AP6" s="79">
+      <c r="AP6" s="76">
         <v>20</v>
       </c>
       <c r="AQ6" s="1" t="s">
@@ -2408,7 +2441,7 @@
       <c r="AT6" s="26"/>
     </row>
     <row r="7" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="80"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2421,14 +2454,14 @@
       <c r="K7" s="21">
         <v>0</v>
       </c>
-      <c r="M7" s="80"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="96"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="1">
         <v>0.70286999999999999</v>
       </c>
@@ -2440,16 +2473,16 @@
         <v>0.31458164383171855</v>
       </c>
       <c r="X7" s="26"/>
-      <c r="Y7" s="75" t="s">
+      <c r="Y7" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="79">
+      <c r="Z7" s="76">
         <v>0.3</v>
       </c>
-      <c r="AA7" s="77" t="s">
+      <c r="AA7" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="79">
+      <c r="AB7" s="76">
         <v>21</v>
       </c>
       <c r="AC7" s="1" t="s">
@@ -2470,9 +2503,9 @@
       </c>
       <c r="AH7" s="26"/>
       <c r="AM7" s="26"/>
-      <c r="AN7" s="80"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="80"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="77"/>
       <c r="AQ7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2483,7 +2516,7 @@
       <c r="AT7" s="26"/>
     </row>
     <row r="8" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G8" s="80"/>
+      <c r="G8" s="77"/>
       <c r="I8" s="3">
         <v>1</v>
       </c>
@@ -2493,14 +2526,14 @@
       <c r="K8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="77"/>
       <c r="N8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="97"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="1">
         <v>0.71413000000000004</v>
       </c>
@@ -2512,10 +2545,10 @@
         <v>0.34943217621441469</v>
       </c>
       <c r="X8" s="26"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="79"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="76"/>
       <c r="AC8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2534,9 +2567,9 @@
       </c>
       <c r="AH8" s="26"/>
       <c r="AM8" s="26"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="80"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="77"/>
       <c r="AQ8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2580,7 @@
       <c r="AT8" s="26"/>
     </row>
     <row r="9" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="76" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2562,7 +2595,7 @@
       <c r="K9" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="76" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2583,16 +2616,16 @@
         <v>0.58117948717948709</v>
       </c>
       <c r="X9" s="26"/>
-      <c r="Y9" s="75" t="s">
+      <c r="Y9" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="79">
+      <c r="Z9" s="76">
         <v>0.4</v>
       </c>
-      <c r="AA9" s="77" t="s">
+      <c r="AA9" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AB9" s="79">
+      <c r="AB9" s="76">
         <v>43</v>
       </c>
       <c r="AC9" s="1" t="s">
@@ -2613,13 +2646,13 @@
       </c>
       <c r="AH9" s="26"/>
       <c r="AM9" s="26"/>
-      <c r="AN9" s="79" t="s">
+      <c r="AN9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AO9" s="79">
+      <c r="AO9" s="76">
         <v>1</v>
       </c>
-      <c r="AP9" s="79">
+      <c r="AP9" s="76">
         <v>30</v>
       </c>
       <c r="AQ9" s="1" t="s">
@@ -2632,7 +2665,7 @@
       <c r="AT9" s="26"/>
     </row>
     <row r="10" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G10" s="80"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2678,7 @@
       <c r="K10" s="22">
         <v>0</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="77"/>
       <c r="N10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2664,10 +2697,10 @@
         <v>0.2217332430602573</v>
       </c>
       <c r="X10" s="26"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="79"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="76"/>
       <c r="AC10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2686,9 +2719,9 @@
       </c>
       <c r="AH10" s="26"/>
       <c r="AM10" s="26"/>
-      <c r="AN10" s="80"/>
-      <c r="AO10" s="80"/>
-      <c r="AP10" s="80"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
       <c r="AQ10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2732,7 @@
       <c r="AT10" s="26"/>
     </row>
     <row r="11" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G11" s="80"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2745,7 @@
       <c r="K11" s="22">
         <v>0</v>
       </c>
-      <c r="M11" s="80"/>
+      <c r="M11" s="77"/>
       <c r="N11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2731,16 +2764,16 @@
         <v>0.74810537712017311</v>
       </c>
       <c r="X11" s="26"/>
-      <c r="Y11" s="75" t="s">
+      <c r="Y11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="79">
+      <c r="Z11" s="76">
         <v>0.4</v>
       </c>
-      <c r="AA11" s="77" t="s">
+      <c r="AA11" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="79">
+      <c r="AB11" s="76">
         <v>15</v>
       </c>
       <c r="AC11" s="1" t="s">
@@ -2761,9 +2794,9 @@
       </c>
       <c r="AH11" s="26"/>
       <c r="AM11" s="26"/>
-      <c r="AN11" s="80"/>
-      <c r="AO11" s="80"/>
-      <c r="AP11" s="80"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
       <c r="AQ11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2789,7 +2822,7 @@
       <c r="K12" s="23">
         <v>0.34699999999999998</v>
       </c>
-      <c r="M12" s="79" t="s">
+      <c r="M12" s="76" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -2810,10 +2843,10 @@
         <v>0.49153180278509595</v>
       </c>
       <c r="X12" s="26"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="79"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="76"/>
       <c r="AC12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2832,13 +2865,13 @@
       </c>
       <c r="AH12" s="26"/>
       <c r="AM12" s="26"/>
-      <c r="AN12" s="79" t="s">
+      <c r="AN12" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="AO12" s="79">
+      <c r="AO12" s="76">
         <v>10</v>
       </c>
-      <c r="AP12" s="79">
+      <c r="AP12" s="76">
         <v>20</v>
       </c>
       <c r="AQ12" s="1" t="s">
@@ -2865,7 +2898,7 @@
       <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="M13" s="80"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2884,16 +2917,16 @@
         <v>1.166739198010569</v>
       </c>
       <c r="X13" s="26"/>
-      <c r="Y13" s="75" t="s">
+      <c r="Y13" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="79">
+      <c r="Z13" s="76">
         <v>0.5</v>
       </c>
-      <c r="AA13" s="77" t="s">
+      <c r="AA13" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AB13" s="79">
+      <c r="AB13" s="76">
         <v>24</v>
       </c>
       <c r="AC13" s="1" t="s">
@@ -2914,9 +2947,9 @@
       </c>
       <c r="AH13" s="26"/>
       <c r="AM13" s="26"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="80"/>
-      <c r="AP13" s="80"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
       <c r="AQ13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2974,7 @@
       <c r="K14" s="23">
         <v>0.89</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2960,10 +2993,10 @@
         <v>3.1093519278096799</v>
       </c>
       <c r="X14" s="26"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="79"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="76"/>
       <c r="AC14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2982,9 +3015,9 @@
       </c>
       <c r="AH14" s="26"/>
       <c r="AM14" s="26"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="80"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
       <c r="AQ14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3044,7 @@
       <c r="K15" s="23">
         <v>0.82299999999999995</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="78" t="s">
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -3032,16 +3065,16 @@
         <v>0.44909090909090921</v>
       </c>
       <c r="X15" s="26"/>
-      <c r="Y15" s="75" t="s">
+      <c r="Y15" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="79">
+      <c r="Z15" s="76">
         <v>0.6</v>
       </c>
-      <c r="AA15" s="77" t="s">
+      <c r="AA15" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AB15" s="79">
+      <c r="AB15" s="76">
         <v>48</v>
       </c>
       <c r="AC15" s="1" t="s">
@@ -3062,13 +3095,13 @@
       </c>
       <c r="AH15" s="26"/>
       <c r="AM15" s="26"/>
-      <c r="AN15" s="93" t="s">
+      <c r="AN15" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="79">
+      <c r="AO15" s="76">
         <v>10</v>
       </c>
-      <c r="AP15" s="79">
+      <c r="AP15" s="76">
         <v>20</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -3095,7 +3128,7 @@
       <c r="K16" s="23">
         <v>0.99</v>
       </c>
-      <c r="M16" s="94"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3114,10 +3147,10 @@
         <v>0.56730960429508848</v>
       </c>
       <c r="X16" s="26"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="79"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="76"/>
       <c r="AC16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3136,9 +3169,9 @@
       </c>
       <c r="AH16" s="26"/>
       <c r="AM16" s="26"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="80"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
       <c r="AQ16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3163,7 +3196,7 @@
       <c r="K17" s="23">
         <v>0.99</v>
       </c>
-      <c r="M17" s="94"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3182,16 +3215,16 @@
         <v>1.187862950058072</v>
       </c>
       <c r="X17" s="26"/>
-      <c r="Y17" s="75" t="s">
+      <c r="Y17" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="79">
+      <c r="Z17" s="76">
         <v>0.8</v>
       </c>
-      <c r="AA17" s="77" t="s">
+      <c r="AA17" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="AB17" s="79">
+      <c r="AB17" s="76">
         <v>20</v>
       </c>
       <c r="AC17" s="1" t="s">
@@ -3212,9 +3245,9 @@
       </c>
       <c r="AH17" s="26"/>
       <c r="AM17" s="26"/>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="80"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
       <c r="AQ17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3273,7 @@
       <c r="K18" s="20">
         <v>0</v>
       </c>
-      <c r="M18" s="79" t="s">
+      <c r="M18" s="76" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -3261,10 +3294,10 @@
         <v>1.3529411764705881</v>
       </c>
       <c r="X18" s="26"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="79"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="76"/>
       <c r="AC18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3283,13 +3316,13 @@
       </c>
       <c r="AH18" s="26"/>
       <c r="AM18" s="26"/>
-      <c r="AN18" s="79" t="s">
+      <c r="AN18" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AO18" s="79">
+      <c r="AO18" s="76">
         <v>10</v>
       </c>
-      <c r="AP18" s="79">
+      <c r="AP18" s="76">
         <v>20</v>
       </c>
       <c r="AQ18" s="1" t="s">
@@ -3315,7 +3348,7 @@
       <c r="K19" s="20">
         <v>0</v>
       </c>
-      <c r="M19" s="80"/>
+      <c r="M19" s="77"/>
       <c r="N19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3334,16 +3367,16 @@
         <v>2.0337308347529812</v>
       </c>
       <c r="X19" s="26"/>
-      <c r="Y19" s="75" t="s">
+      <c r="Y19" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="Z19" s="79">
+      <c r="Z19" s="76">
         <v>0.6</v>
       </c>
-      <c r="AA19" s="77" t="s">
+      <c r="AA19" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AB19" s="79">
+      <c r="AB19" s="76">
         <v>18</v>
       </c>
       <c r="AC19" s="1" t="s">
@@ -3364,9 +3397,9 @@
       </c>
       <c r="AH19" s="26"/>
       <c r="AM19" s="26"/>
-      <c r="AN19" s="80"/>
-      <c r="AO19" s="80"/>
-      <c r="AP19" s="80"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
       <c r="AQ19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3390,7 +3423,7 @@
       <c r="K20" s="20">
         <v>0</v>
       </c>
-      <c r="M20" s="80"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3409,10 +3442,10 @@
         <v>13.420970266040689</v>
       </c>
       <c r="X20" s="26"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="79"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="76"/>
       <c r="AC20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3431,9 +3464,9 @@
       </c>
       <c r="AH20" s="26"/>
       <c r="AM20" s="26"/>
-      <c r="AN20" s="80"/>
-      <c r="AO20" s="80"/>
-      <c r="AP20" s="80"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
       <c r="AQ20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3477,7 @@
       <c r="AT20" s="26"/>
     </row>
     <row r="21" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="76" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3457,7 +3490,7 @@
       <c r="K21" s="20">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="M21" s="79" t="s">
+      <c r="M21" s="76" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3489,13 +3522,13 @@
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
       <c r="AM21" s="26"/>
-      <c r="AN21" s="79" t="s">
+      <c r="AN21" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="AO21" s="79">
+      <c r="AO21" s="76">
         <v>10</v>
       </c>
-      <c r="AP21" s="79">
+      <c r="AP21" s="76">
         <v>30</v>
       </c>
       <c r="AQ21" s="1" t="s">
@@ -3508,7 +3541,7 @@
       <c r="AT21" s="26"/>
     </row>
     <row r="22" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G22" s="80"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3519,7 +3552,7 @@
       <c r="K22" s="24">
         <v>0.99</v>
       </c>
-      <c r="M22" s="80"/>
+      <c r="M22" s="77"/>
       <c r="N22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3549,9 +3582,9 @@
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
       <c r="AM22" s="26"/>
-      <c r="AN22" s="80"/>
-      <c r="AO22" s="80"/>
-      <c r="AP22" s="80"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
       <c r="AQ22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3562,7 +3595,7 @@
       <c r="AT22" s="26"/>
     </row>
     <row r="23" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G23" s="80"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3573,7 +3606,7 @@
       <c r="K23" s="24">
         <v>0.99</v>
       </c>
-      <c r="M23" s="80"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3603,9 +3636,9 @@
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
       <c r="AM23" s="26"/>
-      <c r="AN23" s="80"/>
-      <c r="AO23" s="80"/>
-      <c r="AP23" s="80"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
       <c r="AQ23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3616,7 +3649,7 @@
       <c r="AT23" s="26"/>
     </row>
     <row r="24" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="76" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3631,7 +3664,7 @@
       <c r="K24" s="20">
         <v>0</v>
       </c>
-      <c r="M24" s="79" t="s">
+      <c r="M24" s="76" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3640,7 +3673,7 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="95">
+      <c r="P24" s="84">
         <v>10</v>
       </c>
       <c r="Q24" s="1">
@@ -3665,13 +3698,13 @@
       <c r="AG24" s="26"/>
       <c r="AH24" s="26"/>
       <c r="AM24" s="26"/>
-      <c r="AN24" s="79" t="s">
+      <c r="AN24" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="AO24" s="79">
+      <c r="AO24" s="76">
         <v>30</v>
       </c>
-      <c r="AP24" s="79">
+      <c r="AP24" s="76">
         <v>20</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -3684,7 +3717,7 @@
       <c r="AT24" s="26"/>
     </row>
     <row r="25" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G25" s="80"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3697,14 +3730,14 @@
       <c r="K25" s="25">
         <v>0</v>
       </c>
-      <c r="M25" s="80"/>
+      <c r="M25" s="77"/>
       <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="2">
         <v>1E-4</v>
       </c>
-      <c r="P25" s="96"/>
+      <c r="P25" s="82"/>
       <c r="Q25" s="1">
         <v>0.34460000000000002</v>
       </c>
@@ -3727,9 +3760,9 @@
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
       <c r="AM25" s="26"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
       <c r="AQ25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3740,7 +3773,7 @@
       <c r="AT25" s="26"/>
     </row>
     <row r="26" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G26" s="80"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3751,14 +3784,14 @@
       <c r="K26" s="25">
         <v>0</v>
       </c>
-      <c r="M26" s="80"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="97"/>
+      <c r="P26" s="83"/>
       <c r="Q26" s="1">
         <v>0.37759999999999999</v>
       </c>
@@ -3781,9 +3814,9 @@
       <c r="AG26" s="26"/>
       <c r="AH26" s="26"/>
       <c r="AM26" s="26"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="80"/>
-      <c r="AP26" s="80"/>
+      <c r="AN26" s="77"/>
+      <c r="AO26" s="77"/>
+      <c r="AP26" s="77"/>
       <c r="AQ26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3827,7 @@
       <c r="AT26" s="26"/>
     </row>
     <row r="27" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="76" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3810,7 +3843,7 @@
       <c r="K27" s="20">
         <v>0</v>
       </c>
-      <c r="M27" s="79" t="s">
+      <c r="M27" s="76" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3839,13 +3872,13 @@
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
       <c r="AM27" s="26"/>
-      <c r="AN27" s="79" t="s">
+      <c r="AN27" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="AO27" s="79">
+      <c r="AO27" s="76">
         <v>10</v>
       </c>
-      <c r="AP27" s="79">
+      <c r="AP27" s="76">
         <v>30</v>
       </c>
       <c r="AQ27" s="1" t="s">
@@ -3858,7 +3891,7 @@
       <c r="AT27" s="26"/>
     </row>
     <row r="28" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G28" s="80"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +3905,7 @@
       <c r="K28" s="20">
         <v>0</v>
       </c>
-      <c r="M28" s="80"/>
+      <c r="M28" s="77"/>
       <c r="N28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3891,9 +3924,9 @@
         <v>0.34424257770462752</v>
       </c>
       <c r="AM28" s="26"/>
-      <c r="AN28" s="80"/>
-      <c r="AO28" s="80"/>
-      <c r="AP28" s="80"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="77"/>
       <c r="AQ28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3904,7 +3937,7 @@
       <c r="AT28" s="26"/>
     </row>
     <row r="29" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G29" s="80"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3918,7 +3951,7 @@
       <c r="K29" s="20">
         <v>0</v>
       </c>
-      <c r="M29" s="80"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3937,9 +3970,9 @@
         <v>1.2272466146901928</v>
       </c>
       <c r="AM29" s="26"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
       <c r="AQ29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3983,7 @@
       <c r="AT29" s="26"/>
     </row>
     <row r="30" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="76" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3982,7 +4015,7 @@
       <c r="AT30" s="26"/>
     </row>
     <row r="31" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G31" s="80"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4012,7 +4045,7 @@
       <c r="AT31" s="26"/>
     </row>
     <row r="32" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G32" s="80"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4125,16 +4158,16 @@
       <c r="K35" s="10">
         <v>0.99</v>
       </c>
-      <c r="Y35" s="75" t="s">
+      <c r="Y35" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="Z35" s="79">
+      <c r="Z35" s="76">
         <v>0.5</v>
       </c>
-      <c r="AA35" s="77" t="s">
+      <c r="AA35" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB35" s="79">
+      <c r="AB35" s="76">
         <v>12</v>
       </c>
       <c r="AC35" s="1" t="s">
@@ -4153,18 +4186,18 @@
       <c r="AG35" s="1">
         <v>36</v>
       </c>
-      <c r="AN35" s="75" t="s">
+      <c r="AN35" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="75" t="s">
+      <c r="AO35" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="AP35" s="75"/>
+      <c r="AP35" s="74"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="4"/>
     </row>
     <row r="36" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G36" s="79" t="s">
+      <c r="G36" s="76" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -4180,10 +4213,10 @@
       <c r="K36" s="2">
         <v>0.99</v>
       </c>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="77"/>
-      <c r="AB36" s="79"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="76"/>
       <c r="AC36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4200,9 +4233,9 @@
       <c r="AG36" s="13">
         <v>36</v>
       </c>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="76"/>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="75"/>
+      <c r="AP36" s="75"/>
       <c r="AQ36" s="1" t="s">
         <v>4</v>
       </c>
@@ -4211,7 +4244,7 @@
       </c>
     </row>
     <row r="37" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G37" s="80"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="1" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4258,7 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="79" t="s">
+      <c r="M37" s="76" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -4235,16 +4268,16 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="P37" s="27"/>
-      <c r="Y37" s="75" t="s">
+      <c r="Y37" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="79">
+      <c r="Z37" s="76">
         <v>0.5</v>
       </c>
-      <c r="AA37" s="77" t="s">
+      <c r="AA37" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB37" s="79">
+      <c r="AB37" s="76">
         <v>30</v>
       </c>
       <c r="AC37" s="1" t="s">
@@ -4263,9 +4296,9 @@
       <c r="AG37" s="1">
         <v>211</v>
       </c>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="76"/>
-      <c r="AP37" s="76"/>
+      <c r="AN37" s="75"/>
+      <c r="AO37" s="75"/>
+      <c r="AP37" s="75"/>
       <c r="AQ37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +4307,7 @@
       </c>
     </row>
     <row r="38" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G38" s="80"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4288,7 +4321,7 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="M38" s="80"/>
+      <c r="M38" s="77"/>
       <c r="N38" s="1" t="s">
         <v>4</v>
       </c>
@@ -4306,10 +4339,10 @@
         <f>(R38-Q38)/Q38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="79"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="76"/>
       <c r="AC38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4326,18 +4359,18 @@
       <c r="AG38" s="1">
         <v>211</v>
       </c>
-      <c r="AN38" s="75" t="s">
+      <c r="AN38" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="AO38" s="81" t="s">
+      <c r="AO38" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="AP38" s="79"/>
+      <c r="AP38" s="76"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="31"/>
     </row>
     <row r="39" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M39" s="80"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4345,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="P39" s="27"/>
-      <c r="Y39" s="75" t="s">
+      <c r="Y39" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="Z39" s="79">
+      <c r="Z39" s="76">
         <v>0.3</v>
       </c>
-      <c r="AA39" s="77" t="s">
+      <c r="AA39" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB39" s="79">
+      <c r="AB39" s="76">
         <v>21</v>
       </c>
       <c r="AC39" s="1" t="s">
@@ -4373,9 +4406,9 @@
       <c r="AG39" s="1">
         <v>550</v>
       </c>
-      <c r="AN39" s="76"/>
-      <c r="AO39" s="82"/>
-      <c r="AP39" s="80"/>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="94"/>
+      <c r="AP39" s="77"/>
       <c r="AQ39" s="1" t="s">
         <v>4</v>
       </c>
@@ -4384,7 +4417,7 @@
       </c>
     </row>
     <row r="40" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M40" s="75" t="s">
+      <c r="M40" s="74" t="s">
         <v>21</v>
       </c>
       <c r="N40" s="13" t="s">
@@ -4395,10 +4428,10 @@
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="77"/>
-      <c r="AB40" s="79"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="76"/>
       <c r="AC40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4415,9 +4448,9 @@
       <c r="AG40" s="1">
         <v>581</v>
       </c>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="82"/>
-      <c r="AP40" s="80"/>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="94"/>
+      <c r="AP40" s="77"/>
       <c r="AQ40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4426,7 +4459,7 @@
       </c>
     </row>
     <row r="41" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M41" s="76"/>
+      <c r="M41" s="75"/>
       <c r="N41" s="13" t="s">
         <v>4</v>
       </c>
@@ -4435,16 +4468,16 @@
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="Y41" s="75" t="s">
+      <c r="Y41" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="Z41" s="79">
+      <c r="Z41" s="76">
         <v>0.4</v>
       </c>
-      <c r="AA41" s="77" t="s">
+      <c r="AA41" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="79">
+      <c r="AB41" s="76">
         <v>43</v>
       </c>
       <c r="AC41" s="1" t="s">
@@ -4463,18 +4496,18 @@
       <c r="AG41" s="1">
         <v>45</v>
       </c>
-      <c r="AN41" s="75" t="s">
+      <c r="AN41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AO41" s="81" t="s">
+      <c r="AO41" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="AP41" s="79"/>
+      <c r="AP41" s="76"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="4"/>
     </row>
     <row r="42" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M42" s="76"/>
+      <c r="M42" s="75"/>
       <c r="N42" s="13" t="s">
         <v>5</v>
       </c>
@@ -4483,10 +4516,10 @@
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="79"/>
-      <c r="AA42" s="77"/>
-      <c r="AB42" s="79"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="76"/>
       <c r="AC42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4503,9 +4536,9 @@
       <c r="AG42" s="1">
         <v>45</v>
       </c>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="82"/>
-      <c r="AP42" s="80"/>
+      <c r="AN42" s="75"/>
+      <c r="AO42" s="94"/>
+      <c r="AP42" s="77"/>
       <c r="AQ42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4514,16 +4547,16 @@
       </c>
     </row>
     <row r="43" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y43" s="75" t="s">
+      <c r="Y43" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Z43" s="79">
+      <c r="Z43" s="76">
         <v>0.4</v>
       </c>
-      <c r="AA43" s="77" t="s">
+      <c r="AA43" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB43" s="79">
+      <c r="AB43" s="76">
         <v>15</v>
       </c>
       <c r="AC43" s="1" t="s">
@@ -4542,9 +4575,9 @@
       <c r="AG43" s="1">
         <v>55</v>
       </c>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="82"/>
-      <c r="AP43" s="80"/>
+      <c r="AN43" s="75"/>
+      <c r="AO43" s="94"/>
+      <c r="AP43" s="77"/>
       <c r="AQ43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4553,10 +4586,10 @@
       </c>
     </row>
     <row r="44" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="79"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="79"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="80"/>
+      <c r="AB44" s="76"/>
       <c r="AC44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4573,27 +4606,27 @@
       <c r="AG44" s="1">
         <v>55</v>
       </c>
-      <c r="AN44" s="75" t="s">
+      <c r="AN44" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AO44" s="77" t="s">
+      <c r="AO44" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="AP44" s="79"/>
+      <c r="AP44" s="76"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="4"/>
     </row>
     <row r="45" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y45" s="75" t="s">
+      <c r="Y45" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="Z45" s="79">
+      <c r="Z45" s="76">
         <v>0.5</v>
       </c>
-      <c r="AA45" s="77" t="s">
+      <c r="AA45" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB45" s="79">
+      <c r="AB45" s="76">
         <v>24</v>
       </c>
       <c r="AC45" s="1" t="s">
@@ -4612,9 +4645,9 @@
       <c r="AG45" s="1">
         <v>218</v>
       </c>
-      <c r="AN45" s="76"/>
-      <c r="AO45" s="78"/>
-      <c r="AP45" s="80"/>
+      <c r="AN45" s="75"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="77"/>
       <c r="AQ45" s="1" t="s">
         <v>4</v>
       </c>
@@ -4623,10 +4656,10 @@
       </c>
     </row>
     <row r="46" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="77"/>
-      <c r="AB46" s="79"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="76"/>
       <c r="AC46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4643,9 +4676,9 @@
       <c r="AG46" s="1">
         <v>218</v>
       </c>
-      <c r="AN46" s="76"/>
-      <c r="AO46" s="78"/>
-      <c r="AP46" s="80"/>
+      <c r="AN46" s="75"/>
+      <c r="AO46" s="97"/>
+      <c r="AP46" s="77"/>
       <c r="AQ46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4654,16 +4687,16 @@
       </c>
     </row>
     <row r="47" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y47" s="75" t="s">
+      <c r="Y47" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="Z47" s="79">
+      <c r="Z47" s="76">
         <v>0.6</v>
       </c>
-      <c r="AA47" s="77" t="s">
+      <c r="AA47" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB47" s="79">
+      <c r="AB47" s="76">
         <v>48</v>
       </c>
       <c r="AC47" s="1" t="s">
@@ -4682,21 +4715,21 @@
       <c r="AG47" s="1">
         <v>337</v>
       </c>
-      <c r="AN47" s="83" t="s">
+      <c r="AN47" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AO47" s="77" t="s">
+      <c r="AO47" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="AP47" s="79"/>
+      <c r="AP47" s="76"/>
       <c r="AQ47" s="1"/>
       <c r="AR47" s="31"/>
     </row>
     <row r="48" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y48" s="75"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="77"/>
-      <c r="AB48" s="79"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="76"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="76"/>
       <c r="AC48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4713,9 +4746,9 @@
       <c r="AG48" s="1">
         <v>450</v>
       </c>
-      <c r="AN48" s="84"/>
-      <c r="AO48" s="78"/>
-      <c r="AP48" s="80"/>
+      <c r="AN48" s="96"/>
+      <c r="AO48" s="97"/>
+      <c r="AP48" s="77"/>
       <c r="AQ48" s="1" t="s">
         <v>4</v>
       </c>
@@ -4724,16 +4757,16 @@
       </c>
     </row>
     <row r="49" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y49" s="75" t="s">
+      <c r="Y49" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="Z49" s="79">
+      <c r="Z49" s="76">
         <v>0.8</v>
       </c>
-      <c r="AA49" s="77" t="s">
+      <c r="AA49" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB49" s="79">
+      <c r="AB49" s="76">
         <v>20</v>
       </c>
       <c r="AC49" s="1" t="s">
@@ -4752,9 +4785,9 @@
       <c r="AG49" s="1">
         <v>108</v>
       </c>
-      <c r="AN49" s="84"/>
-      <c r="AO49" s="78"/>
-      <c r="AP49" s="80"/>
+      <c r="AN49" s="96"/>
+      <c r="AO49" s="97"/>
+      <c r="AP49" s="77"/>
       <c r="AQ49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4763,10 +4796,10 @@
       </c>
     </row>
     <row r="50" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y50" s="75"/>
-      <c r="Z50" s="79"/>
-      <c r="AA50" s="77"/>
-      <c r="AB50" s="79"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="76"/>
       <c r="AC50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4783,27 +4816,27 @@
       <c r="AG50" s="1">
         <v>108</v>
       </c>
-      <c r="AN50" s="75" t="s">
+      <c r="AN50" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AO50" s="77" t="s">
+      <c r="AO50" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="AP50" s="79"/>
+      <c r="AP50" s="76"/>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="31"/>
     </row>
     <row r="51" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y51" s="75" t="s">
+      <c r="Y51" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="Z51" s="79">
+      <c r="Z51" s="76">
         <v>0.6</v>
       </c>
-      <c r="AA51" s="77" t="s">
+      <c r="AA51" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AB51" s="79">
+      <c r="AB51" s="76">
         <v>18</v>
       </c>
       <c r="AC51" s="1" t="s">
@@ -4822,9 +4855,9 @@
       <c r="AG51" s="1">
         <v>84</v>
       </c>
-      <c r="AN51" s="76"/>
-      <c r="AO51" s="78"/>
-      <c r="AP51" s="80"/>
+      <c r="AN51" s="75"/>
+      <c r="AO51" s="97"/>
+      <c r="AP51" s="77"/>
       <c r="AQ51" s="1" t="s">
         <v>4</v>
       </c>
@@ -4833,10 +4866,10 @@
       </c>
     </row>
     <row r="52" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="79"/>
-      <c r="AA52" s="77"/>
-      <c r="AB52" s="79"/>
+      <c r="Y52" s="74"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="80"/>
+      <c r="AB52" s="76"/>
       <c r="AC52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4853,9 +4886,9 @@
       <c r="AG52" s="1">
         <v>84</v>
       </c>
-      <c r="AN52" s="76"/>
-      <c r="AO52" s="78"/>
-      <c r="AP52" s="80"/>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="97"/>
+      <c r="AP52" s="77"/>
       <c r="AQ52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4864,20 +4897,20 @@
       </c>
     </row>
     <row r="53" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN53" s="75" t="s">
+      <c r="AN53" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AO53" s="79" t="s">
+      <c r="AO53" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="AP53" s="79"/>
+      <c r="AP53" s="76"/>
       <c r="AQ53" s="1"/>
       <c r="AR53" s="2"/>
     </row>
     <row r="54" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN54" s="76"/>
-      <c r="AO54" s="80"/>
-      <c r="AP54" s="80"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="77"/>
+      <c r="AP54" s="77"/>
       <c r="AQ54" s="1" t="s">
         <v>4</v>
       </c>
@@ -4887,9 +4920,9 @@
       <c r="AS54" s="36"/>
     </row>
     <row r="55" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN55" s="76"/>
-      <c r="AO55" s="80"/>
-      <c r="AP55" s="80"/>
+      <c r="AN55" s="75"/>
+      <c r="AO55" s="77"/>
+      <c r="AP55" s="77"/>
       <c r="AQ55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4899,20 +4932,20 @@
       <c r="AS55" s="36"/>
     </row>
     <row r="56" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN56" s="75" t="s">
+      <c r="AN56" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="AO56" s="77" t="s">
+      <c r="AO56" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="AP56" s="79"/>
+      <c r="AP56" s="76"/>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="2"/>
     </row>
     <row r="57" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN57" s="76"/>
-      <c r="AO57" s="78"/>
-      <c r="AP57" s="80"/>
+      <c r="AN57" s="75"/>
+      <c r="AO57" s="97"/>
+      <c r="AP57" s="77"/>
       <c r="AQ57" s="1" t="s">
         <v>4</v>
       </c>
@@ -4921,9 +4954,9 @@
       </c>
     </row>
     <row r="58" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN58" s="76"/>
-      <c r="AO58" s="78"/>
-      <c r="AP58" s="80"/>
+      <c r="AN58" s="75"/>
+      <c r="AO58" s="97"/>
+      <c r="AP58" s="77"/>
       <c r="AQ58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4932,20 +4965,20 @@
       </c>
     </row>
     <row r="59" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN59" s="75" t="s">
+      <c r="AN59" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AO59" s="77" t="s">
+      <c r="AO59" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="AP59" s="79"/>
+      <c r="AP59" s="76"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="2"/>
     </row>
     <row r="60" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="78"/>
-      <c r="AP60" s="80"/>
+      <c r="AN60" s="75"/>
+      <c r="AO60" s="97"/>
+      <c r="AP60" s="77"/>
       <c r="AQ60" s="1" t="s">
         <v>4</v>
       </c>
@@ -4954,9 +4987,9 @@
       </c>
     </row>
     <row r="61" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN61" s="76"/>
-      <c r="AO61" s="78"/>
-      <c r="AP61" s="80"/>
+      <c r="AN61" s="75"/>
+      <c r="AO61" s="97"/>
+      <c r="AP61" s="77"/>
       <c r="AQ61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4966,47 +4999,93 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AO6:AO8"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AO27:AO29"/>
-    <mergeCell ref="AO12:AO14"/>
-    <mergeCell ref="AO15:AO17"/>
-    <mergeCell ref="AO18:AO20"/>
-    <mergeCell ref="AO21:AO23"/>
-    <mergeCell ref="AO24:AO26"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AN6:AN8"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AN12:AN14"/>
-    <mergeCell ref="AN15:AN17"/>
-    <mergeCell ref="AN18:AN20"/>
-    <mergeCell ref="AN21:AN23"/>
-    <mergeCell ref="AN24:AN26"/>
-    <mergeCell ref="AN27:AN29"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AP6:AP8"/>
-    <mergeCell ref="AP9:AP11"/>
-    <mergeCell ref="AP12:AP14"/>
-    <mergeCell ref="AP15:AP17"/>
-    <mergeCell ref="AP18:AP20"/>
-    <mergeCell ref="AP21:AP23"/>
-    <mergeCell ref="AP24:AP26"/>
-    <mergeCell ref="AP27:AP29"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AN59:AN61"/>
+    <mergeCell ref="AO59:AO61"/>
+    <mergeCell ref="AP59:AP61"/>
+    <mergeCell ref="AN53:AN55"/>
+    <mergeCell ref="AO53:AO55"/>
+    <mergeCell ref="AP53:AP55"/>
+    <mergeCell ref="AN56:AN58"/>
+    <mergeCell ref="AO56:AO58"/>
+    <mergeCell ref="AP56:AP58"/>
+    <mergeCell ref="AO47:AO49"/>
+    <mergeCell ref="AP47:AP49"/>
+    <mergeCell ref="AN50:AN52"/>
+    <mergeCell ref="AO50:AO52"/>
+    <mergeCell ref="AP50:AP52"/>
+    <mergeCell ref="AO41:AO43"/>
+    <mergeCell ref="AP41:AP43"/>
+    <mergeCell ref="AN44:AN46"/>
+    <mergeCell ref="AO44:AO46"/>
+    <mergeCell ref="AP44:AP46"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AP35:AP37"/>
+    <mergeCell ref="AN38:AN40"/>
+    <mergeCell ref="AO38:AO40"/>
+    <mergeCell ref="AP38:AP40"/>
+    <mergeCell ref="Y51:Y52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AB51:AB52"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AN41:AN43"/>
+    <mergeCell ref="AN47:AN49"/>
+    <mergeCell ref="Y47:Y48"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="AA47:AA48"/>
+    <mergeCell ref="AB47:AB48"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AB49:AB50"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="AA45:AA46"/>
+    <mergeCell ref="AB45:AB46"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="AB41:AB42"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
     <mergeCell ref="AB17:AB18"/>
     <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="AA19:AA20"/>
@@ -5031,93 +5110,47 @@
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="Y45:Y46"/>
-    <mergeCell ref="Z45:Z46"/>
-    <mergeCell ref="AA45:AA46"/>
-    <mergeCell ref="AB45:AB46"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="AB39:AB40"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="AB41:AB42"/>
-    <mergeCell ref="AO35:AO37"/>
-    <mergeCell ref="AP35:AP37"/>
-    <mergeCell ref="AN38:AN40"/>
-    <mergeCell ref="AO38:AO40"/>
-    <mergeCell ref="AP38:AP40"/>
-    <mergeCell ref="Y51:Y52"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AB51:AB52"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="AN41:AN43"/>
-    <mergeCell ref="AN47:AN49"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="Z47:Z48"/>
-    <mergeCell ref="AA47:AA48"/>
-    <mergeCell ref="AB47:AB48"/>
-    <mergeCell ref="Y49:Y50"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="AB49:AB50"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AO47:AO49"/>
-    <mergeCell ref="AP47:AP49"/>
-    <mergeCell ref="AN50:AN52"/>
-    <mergeCell ref="AO50:AO52"/>
-    <mergeCell ref="AP50:AP52"/>
-    <mergeCell ref="AO41:AO43"/>
-    <mergeCell ref="AP41:AP43"/>
-    <mergeCell ref="AN44:AN46"/>
-    <mergeCell ref="AO44:AO46"/>
-    <mergeCell ref="AP44:AP46"/>
-    <mergeCell ref="AN59:AN61"/>
-    <mergeCell ref="AO59:AO61"/>
-    <mergeCell ref="AP59:AP61"/>
-    <mergeCell ref="AN53:AN55"/>
-    <mergeCell ref="AO53:AO55"/>
-    <mergeCell ref="AP53:AP55"/>
-    <mergeCell ref="AN56:AN58"/>
-    <mergeCell ref="AO56:AO58"/>
-    <mergeCell ref="AP56:AP58"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AP6:AP8"/>
+    <mergeCell ref="AP9:AP11"/>
+    <mergeCell ref="AP12:AP14"/>
+    <mergeCell ref="AP15:AP17"/>
+    <mergeCell ref="AP18:AP20"/>
+    <mergeCell ref="AP21:AP23"/>
+    <mergeCell ref="AP24:AP26"/>
+    <mergeCell ref="AP27:AP29"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AN12:AN14"/>
+    <mergeCell ref="AN15:AN17"/>
+    <mergeCell ref="AN18:AN20"/>
+    <mergeCell ref="AN21:AN23"/>
+    <mergeCell ref="AN24:AN26"/>
+    <mergeCell ref="AN27:AN29"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AO6:AO8"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AO27:AO29"/>
+    <mergeCell ref="AO12:AO14"/>
+    <mergeCell ref="AO15:AO17"/>
+    <mergeCell ref="AO18:AO20"/>
+    <mergeCell ref="AO21:AO23"/>
+    <mergeCell ref="AO24:AO26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5232,10 +5265,10 @@
       </c>
     </row>
     <row r="7" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="74" t="s">
         <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -5254,16 +5287,16 @@
       <c r="K7" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S7" s="98" t="s">
+      <c r="S7" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="75" t="s">
+      <c r="T7" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="98">
+      <c r="U7" s="81">
         <v>1</v>
       </c>
-      <c r="V7" s="98">
+      <c r="V7" s="81">
         <v>12</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -5272,10 +5305,10 @@
       <c r="X7" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="AF7" s="75" t="s">
+      <c r="AF7" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="74" t="s">
         <v>109</v>
       </c>
       <c r="AH7" s="1" t="s">
@@ -5292,8 +5325,8 @@
       </c>
     </row>
     <row r="8" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5310,18 +5343,18 @@
       <c r="K8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="99"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
       <c r="AH8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5336,8 +5369,8 @@
       </c>
     </row>
     <row r="9" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5354,18 +5387,18 @@
       <c r="K9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="100"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X9" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
       <c r="AH9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5380,10 +5413,10 @@
       </c>
     </row>
     <row r="10" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="93" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -5402,16 +5435,16 @@
       <c r="K10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="104" t="s">
+      <c r="S10" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="T10" s="81" t="s">
+      <c r="T10" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="98">
+      <c r="U10" s="81">
         <v>11</v>
       </c>
-      <c r="V10" s="98">
+      <c r="V10" s="81">
         <v>7</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -5420,10 +5453,10 @@
       <c r="X10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF10" s="75" t="s">
+      <c r="AF10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AG10" s="81" t="s">
+      <c r="AG10" s="93" t="s">
         <v>49</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -5440,8 +5473,8 @@
       </c>
     </row>
     <row r="11" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E11" s="76"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5458,18 +5491,18 @@
       <c r="K11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="105"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="82"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="94"/>
       <c r="AH11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5484,8 +5517,8 @@
       </c>
     </row>
     <row r="12" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E12" s="76"/>
-      <c r="F12" s="82"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5502,18 +5535,18 @@
       <c r="K12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="106"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
       <c r="W12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="82"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="94"/>
       <c r="AH12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5528,10 +5561,10 @@
       </c>
     </row>
     <row r="13" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="93" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5550,16 +5583,16 @@
       <c r="K13" s="4">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="S13" s="101" t="s">
+      <c r="S13" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="T13" s="107" t="s">
+      <c r="T13" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="U13" s="101">
+      <c r="U13" s="103">
         <v>8</v>
       </c>
-      <c r="V13" s="101">
+      <c r="V13" s="103">
         <v>1</v>
       </c>
       <c r="W13" s="39" t="s">
@@ -5568,10 +5601,10 @@
       <c r="X13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="75" t="s">
+      <c r="AF13" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="AG13" s="81" t="s">
+      <c r="AG13" s="93" t="s">
         <v>112</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -5588,8 +5621,8 @@
       </c>
     </row>
     <row r="14" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E14" s="76"/>
-      <c r="F14" s="82"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5606,18 +5639,18 @@
       <c r="K14" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
       <c r="W14" s="39" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="82"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="94"/>
       <c r="AH14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5632,8 +5665,8 @@
       </c>
     </row>
     <row r="15" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E15" s="76"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5650,18 +5683,18 @@
       <c r="K15" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="103"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="39" t="s">
         <v>5</v>
       </c>
       <c r="X15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="82"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="94"/>
       <c r="AH15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5676,10 +5709,10 @@
       </c>
     </row>
     <row r="16" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="80" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -5698,16 +5731,16 @@
       <c r="K16" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="104" t="s">
+      <c r="S16" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="77" t="s">
+      <c r="T16" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="U16" s="98">
+      <c r="U16" s="81">
         <v>2</v>
       </c>
-      <c r="V16" s="98">
+      <c r="V16" s="81">
         <v>25</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -5716,10 +5749,10 @@
       <c r="X16" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF16" s="75" t="s">
+      <c r="AF16" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="AG16" s="77" t="s">
+      <c r="AG16" s="80" t="s">
         <v>116</v>
       </c>
       <c r="AH16" s="1" t="s">
@@ -5736,8 +5769,8 @@
       </c>
     </row>
     <row r="17" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E17" s="76"/>
-      <c r="F17" s="78"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5754,18 +5787,18 @@
       <c r="K17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="S17" s="105"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
       <c r="W17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X17" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="78"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="97"/>
       <c r="AH17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5780,8 +5813,8 @@
       </c>
     </row>
     <row r="18" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E18" s="76"/>
-      <c r="F18" s="78"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
@@ -5798,18 +5831,18 @@
       <c r="K18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="S18" s="106"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
       <c r="W18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X18" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="78"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="97"/>
       <c r="AH18" s="1" t="s">
         <v>5</v>
       </c>
@@ -5824,10 +5857,10 @@
       </c>
     </row>
     <row r="19" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="80" t="s">
         <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -5846,16 +5879,16 @@
       <c r="K19" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="S19" s="104" t="s">
+      <c r="S19" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="T19" s="77" t="s">
+      <c r="T19" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="98">
+      <c r="U19" s="81">
         <v>16</v>
       </c>
-      <c r="V19" s="98">
+      <c r="V19" s="81">
         <v>2</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -5864,10 +5897,10 @@
       <c r="X19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF19" s="75" t="s">
+      <c r="AF19" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AG19" s="77" t="s">
+      <c r="AG19" s="80" t="s">
         <v>116</v>
       </c>
       <c r="AH19" s="1" t="s">
@@ -5884,8 +5917,8 @@
       </c>
     </row>
     <row r="20" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E20" s="76"/>
-      <c r="F20" s="78"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
@@ -5902,18 +5935,18 @@
       <c r="K20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="105"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
       <c r="W20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="78"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="97"/>
       <c r="AH20" s="1" t="s">
         <v>4</v>
       </c>
@@ -5928,8 +5961,8 @@
       </c>
     </row>
     <row r="21" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E21" s="76"/>
-      <c r="F21" s="78"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
@@ -5946,18 +5979,18 @@
       <c r="K21" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="106"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
       <c r="W21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="78"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="97"/>
       <c r="AH21" s="1" t="s">
         <v>5</v>
       </c>
@@ -5972,10 +6005,10 @@
       </c>
     </row>
     <row r="22" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="80" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -5994,16 +6027,16 @@
       <c r="K22" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="S22" s="104" t="s">
+      <c r="S22" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="T22" s="75" t="s">
+      <c r="T22" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="U22" s="98">
+      <c r="U22" s="81">
         <v>12</v>
       </c>
-      <c r="V22" s="98">
+      <c r="V22" s="81">
         <v>5</v>
       </c>
       <c r="W22" s="1" t="s">
@@ -6012,10 +6045,10 @@
       <c r="X22" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF22" s="75" t="s">
+      <c r="AF22" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="AG22" s="77" t="s">
+      <c r="AG22" s="80" t="s">
         <v>116</v>
       </c>
       <c r="AH22" s="1" t="s">
@@ -6032,8 +6065,8 @@
       </c>
     </row>
     <row r="23" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E23" s="76"/>
-      <c r="F23" s="78"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
@@ -6050,18 +6083,18 @@
       <c r="K23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="S23" s="105"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
       <c r="W23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X23" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="78"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="97"/>
       <c r="AH23" s="1" t="s">
         <v>4</v>
       </c>
@@ -6076,8 +6109,8 @@
       </c>
     </row>
     <row r="24" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E24" s="76"/>
-      <c r="F24" s="78"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
@@ -6094,18 +6127,18 @@
       <c r="K24" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="106"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
       <c r="W24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="78"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="97"/>
       <c r="AH24" s="1" t="s">
         <v>5</v>
       </c>
@@ -6120,10 +6153,10 @@
       </c>
     </row>
     <row r="25" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="76" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -6142,16 +6175,16 @@
       <c r="K25" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S25" s="98" t="s">
+      <c r="S25" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="T25" s="75" t="s">
+      <c r="T25" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="U25" s="98">
+      <c r="U25" s="81">
         <v>3</v>
       </c>
-      <c r="V25" s="98">
+      <c r="V25" s="81">
         <v>10</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -6160,10 +6193,10 @@
       <c r="X25" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AF25" s="75" t="s">
+      <c r="AF25" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AG25" s="79" t="s">
+      <c r="AG25" s="76" t="s">
         <v>83</v>
       </c>
       <c r="AH25" s="1" t="s">
@@ -6180,8 +6213,8 @@
       </c>
     </row>
     <row r="26" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E26" s="76"/>
-      <c r="F26" s="80"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="1" t="s">
         <v>4</v>
       </c>
@@ -6198,18 +6231,18 @@
       <c r="K26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S26" s="99"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
       <c r="W26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X26" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="80"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="77"/>
       <c r="AH26" s="1" t="s">
         <v>4</v>
       </c>
@@ -6224,8 +6257,8 @@
       </c>
     </row>
     <row r="27" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E27" s="76"/>
-      <c r="F27" s="80"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
@@ -6242,18 +6275,18 @@
       <c r="K27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="S27" s="100"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
       <c r="W27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X27" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="AF27" s="76"/>
-      <c r="AG27" s="80"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="77"/>
       <c r="AH27" s="1" t="s">
         <v>5</v>
       </c>
@@ -6268,16 +6301,16 @@
       </c>
     </row>
     <row r="28" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="S28" s="75" t="s">
+      <c r="S28" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="T28" s="75" t="s">
+      <c r="T28" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="U28" s="98">
+      <c r="U28" s="81">
         <v>9</v>
       </c>
-      <c r="V28" s="98">
+      <c r="V28" s="81">
         <v>15</v>
       </c>
       <c r="W28" s="1" t="s">
@@ -6288,10 +6321,10 @@
       </c>
     </row>
     <row r="29" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
       <c r="W29" s="1" t="s">
         <v>4</v>
       </c>
@@ -6300,10 +6333,10 @@
       </c>
     </row>
     <row r="30" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
       <c r="W30" s="1" t="s">
         <v>5</v>
       </c>
@@ -6716,6 +6749,58 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S28:S30"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="U28:U30"/>
+    <mergeCell ref="V28:V30"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="U22:U24"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
     <mergeCell ref="AF25:AF27"/>
     <mergeCell ref="AG25:AG27"/>
     <mergeCell ref="AF16:AF18"/>
@@ -6724,58 +6809,6 @@
     <mergeCell ref="AG19:AG21"/>
     <mergeCell ref="AF22:AF24"/>
     <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="U22:U24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S28:S30"/>
-    <mergeCell ref="T28:T30"/>
-    <mergeCell ref="U28:U30"/>
-    <mergeCell ref="V28:V30"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T25:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6918,10 +6951,10 @@
       </c>
     </row>
     <row r="4" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>109</v>
       </c>
       <c r="R4" s="13" t="s">
@@ -7000,10 +7033,10 @@
         <v>0.24314206618849862</v>
       </c>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="75" t="s">
+      <c r="AO4" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="AP4" s="75" t="s">
+      <c r="AP4" s="74" t="s">
         <v>109</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -7029,8 +7062,8 @@
       </c>
     </row>
     <row r="5" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
       <c r="R5" s="13" t="s">
         <v>4</v>
       </c>
@@ -7107,8 +7140,8 @@
         <v>0.22198333333333334</v>
       </c>
       <c r="AN5" s="16"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
       <c r="AQ5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7132,8 +7165,8 @@
       </c>
     </row>
     <row r="6" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
       <c r="R6" s="13" t="s">
         <v>5</v>
       </c>
@@ -7209,8 +7242,8 @@
         <v>0.23780616666666668</v>
       </c>
       <c r="AN6" s="16"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
+      <c r="AO6" s="75"/>
+      <c r="AP6" s="75"/>
       <c r="AQ6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7234,10 +7267,10 @@
       </c>
     </row>
     <row r="7" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P7" s="79" t="s">
+      <c r="P7" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="Q7" s="77" t="s">
+      <c r="Q7" s="80" t="s">
         <v>49</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -7316,10 +7349,10 @@
         <v>5.7420064419828769E-2</v>
       </c>
       <c r="AN7" s="16"/>
-      <c r="AO7" s="75" t="s">
+      <c r="AO7" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AP7" s="81" t="s">
+      <c r="AP7" s="93" t="s">
         <v>49</v>
       </c>
       <c r="AQ7" s="1" t="s">
@@ -7345,8 +7378,8 @@
       </c>
     </row>
     <row r="8" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P8" s="80"/>
-      <c r="Q8" s="78"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="97"/>
       <c r="R8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7423,8 +7456,8 @@
         <v>6.7383333333333337E-2</v>
       </c>
       <c r="AN8" s="16"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="82"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="94"/>
       <c r="AQ8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7448,8 +7481,8 @@
       </c>
     </row>
     <row r="9" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P9" s="80"/>
-      <c r="Q9" s="78"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="97"/>
       <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
@@ -7526,8 +7559,8 @@
         <v>6.6449999999999995E-2</v>
       </c>
       <c r="AN9" s="16"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="82"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="94"/>
       <c r="AQ9" s="1" t="s">
         <v>5</v>
       </c>
@@ -7551,10 +7584,10 @@
       </c>
     </row>
     <row r="10" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="Q10" s="77" t="s">
+      <c r="Q10" s="80" t="s">
         <v>112</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -7633,10 +7666,10 @@
         <v>3.3380274344129565E-3</v>
       </c>
       <c r="AN10" s="16"/>
-      <c r="AO10" s="75" t="s">
+      <c r="AO10" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="AP10" s="81" t="s">
+      <c r="AP10" s="93" t="s">
         <v>112</v>
       </c>
       <c r="AQ10" s="1" t="s">
@@ -7662,8 +7695,8 @@
       </c>
     </row>
     <row r="11" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P11" s="80"/>
-      <c r="Q11" s="78"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="97"/>
       <c r="R11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7740,8 +7773,8 @@
         <v>2.3916666666666669E-2</v>
       </c>
       <c r="AN11" s="16"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="82"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="94"/>
       <c r="AQ11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7765,8 +7798,8 @@
       </c>
     </row>
     <row r="12" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P12" s="80"/>
-      <c r="Q12" s="78"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="97"/>
       <c r="R12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7843,8 +7876,8 @@
         <v>4.6116666666666667E-2</v>
       </c>
       <c r="AN12" s="16"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="82"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="94"/>
       <c r="AQ12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7868,10 +7901,10 @@
       </c>
     </row>
     <row r="13" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P13" s="79" t="s">
+      <c r="P13" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="Q13" s="77" t="s">
+      <c r="Q13" s="80" t="s">
         <v>116</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -7950,10 +7983,10 @@
         <v>8.0596521667286397E-2</v>
       </c>
       <c r="AN13" s="16"/>
-      <c r="AO13" s="75" t="s">
+      <c r="AO13" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="AP13" s="77" t="s">
+      <c r="AP13" s="80" t="s">
         <v>116</v>
       </c>
       <c r="AQ13" s="1" t="s">
@@ -7982,8 +8015,8 @@
       </c>
     </row>
     <row r="14" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P14" s="80"/>
-      <c r="Q14" s="78"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="97"/>
       <c r="R14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8060,8 +8093,8 @@
         <v>0.45019999999999993</v>
       </c>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="78"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="97"/>
       <c r="AQ14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8088,8 +8121,8 @@
       </c>
     </row>
     <row r="15" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P15" s="80"/>
-      <c r="Q15" s="78"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="97"/>
       <c r="R15" s="1" t="s">
         <v>5</v>
       </c>
@@ -8166,8 +8199,8 @@
         <v>0.46583905617186111</v>
       </c>
       <c r="AN15" s="16"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="78"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="97"/>
       <c r="AQ15" s="1" t="s">
         <v>5</v>
       </c>
@@ -8194,10 +8227,10 @@
       </c>
     </row>
     <row r="16" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="Q16" s="77" t="s">
+      <c r="Q16" s="80" t="s">
         <v>116</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -8276,10 +8309,10 @@
         <v>5.5839682705353996E-3</v>
       </c>
       <c r="AN16" s="16"/>
-      <c r="AO16" s="75" t="s">
+      <c r="AO16" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AP16" s="77" t="s">
+      <c r="AP16" s="80" t="s">
         <v>116</v>
       </c>
       <c r="AQ16" s="1" t="s">
@@ -8305,8 +8338,8 @@
       </c>
     </row>
     <row r="17" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P17" s="80"/>
-      <c r="Q17" s="78"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="97"/>
       <c r="R17" s="1" t="s">
         <v>4</v>
       </c>
@@ -8383,8 +8416,8 @@
         <v>2.799145299145133E-3</v>
       </c>
       <c r="AN17" s="16"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="78"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="97"/>
       <c r="AQ17" s="1" t="s">
         <v>4</v>
       </c>
@@ -8408,8 +8441,8 @@
       </c>
     </row>
     <row r="18" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P18" s="80"/>
-      <c r="Q18" s="78"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="97"/>
       <c r="R18" s="1" t="s">
         <v>5</v>
       </c>
@@ -8486,8 +8519,8 @@
         <v>6.4432989690722357E-3</v>
       </c>
       <c r="AN18" s="16"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="78"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="97"/>
       <c r="AQ18" s="1" t="s">
         <v>5</v>
       </c>
@@ -8514,10 +8547,10 @@
       </c>
     </row>
     <row r="19" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="Q19" s="77" t="s">
+      <c r="Q19" s="80" t="s">
         <v>116</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -8596,10 +8629,10 @@
         <v>1.9443216968625703E-2</v>
       </c>
       <c r="AN19" s="16"/>
-      <c r="AO19" s="75" t="s">
+      <c r="AO19" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="AP19" s="77" t="s">
+      <c r="AP19" s="80" t="s">
         <v>116</v>
       </c>
       <c r="AQ19" s="1" t="s">
@@ -8625,8 +8658,8 @@
       </c>
     </row>
     <row r="20" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P20" s="76"/>
-      <c r="Q20" s="78"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="97"/>
       <c r="R20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8703,8 +8736,8 @@
         <v>3.6270000000000004E-2</v>
       </c>
       <c r="AN20" s="16"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="78"/>
+      <c r="AO20" s="75"/>
+      <c r="AP20" s="97"/>
       <c r="AQ20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8728,8 +8761,8 @@
       </c>
     </row>
     <row r="21" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P21" s="76"/>
-      <c r="Q21" s="78"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="97"/>
       <c r="R21" s="1" t="s">
         <v>5</v>
       </c>
@@ -8806,8 +8839,8 @@
         <v>7.1650000000000005E-2</v>
       </c>
       <c r="AN21" s="16"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="78"/>
+      <c r="AO21" s="75"/>
+      <c r="AP21" s="97"/>
       <c r="AQ21" s="1" t="s">
         <v>5</v>
       </c>
@@ -8846,10 +8879,10 @@
         <v>3.3380274344129565E-3</v>
       </c>
       <c r="AN22" s="16"/>
-      <c r="AO22" s="111" t="s">
+      <c r="AO22" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="AP22" s="111" t="s">
+      <c r="AP22" s="110" t="s">
         <v>83</v>
       </c>
       <c r="AQ22" s="43" t="s">
@@ -8874,8 +8907,8 @@
         <f>MIN(AM5,AM8,AM11,AM14,AM17,AM20)</f>
         <v>2.799145299145133E-3</v>
       </c>
-      <c r="AO23" s="112"/>
-      <c r="AP23" s="112"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
       <c r="AQ23" s="43" t="s">
         <v>4</v>
       </c>
@@ -8897,8 +8930,8 @@
         <f>MIN(AM6,AM9,AM12,AM15,AM18,AM21)</f>
         <v>6.4432989690722357E-3</v>
       </c>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
       <c r="AQ24" s="43" t="s">
         <v>5</v>
       </c>
@@ -8909,10 +8942,10 @@
       <c r="AT24" s="43"/>
     </row>
     <row r="33" spans="17:34" x14ac:dyDescent="0.3">
-      <c r="Q33" s="109" t="s">
+      <c r="Q33" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="R33" s="109" t="s">
+      <c r="R33" s="108" t="s">
         <v>83</v>
       </c>
       <c r="S33" s="43" t="s">
@@ -8945,8 +8978,8 @@
       </c>
     </row>
     <row r="34" spans="17:34" x14ac:dyDescent="0.3">
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="43" t="s">
         <v>4</v>
       </c>
@@ -8977,8 +9010,8 @@
       </c>
     </row>
     <row r="35" spans="17:34" x14ac:dyDescent="0.3">
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
       <c r="S35" s="43" t="s">
         <v>5</v>
       </c>
@@ -9010,12 +9043,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
     <mergeCell ref="Q33:Q35"/>
     <mergeCell ref="R33:R35"/>
     <mergeCell ref="AO4:AO6"/>
@@ -9032,12 +9065,12 @@
     <mergeCell ref="AP16:AP18"/>
     <mergeCell ref="AO19:AO21"/>
     <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9048,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB571FB-D487-4A6D-8F6B-99C559F93DE5}">
   <dimension ref="G9:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25:AK27"/>
+    <sheetView tabSelected="1" topLeftCell="Q9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13:AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -9151,10 +9184,10 @@
       </c>
     </row>
     <row r="10" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="74" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -9218,16 +9251,16 @@
         <f t="shared" ref="Z10:Z33" si="3">(T10-N10)/N10</f>
         <v>#REF!</v>
       </c>
-      <c r="AD10" s="98" t="s">
+      <c r="AD10" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="AE10" s="75" t="s">
+      <c r="AE10" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AF10" s="98">
+      <c r="AF10" s="81">
         <v>1</v>
       </c>
-      <c r="AG10" s="98">
+      <c r="AG10" s="81">
         <v>12</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -9250,8 +9283,8 @@
       </c>
     </row>
     <row r="11" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G11" s="99"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
@@ -9313,10 +9346,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
       <c r="AH11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9336,12 +9369,12 @@
         <v>85</v>
       </c>
       <c r="AX11">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G12" s="100"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="13" t="s">
         <v>5</v>
       </c>
@@ -9402,10 +9435,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="100"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
       <c r="AH12" s="1" t="s">
         <v>5</v>
       </c>
@@ -9425,38 +9458,50 @@
         <v>85</v>
       </c>
       <c r="AX12">
-        <f>AX11+2</f>
-        <v>7</v>
+        <f>AX11+3</f>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="93" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="49">
+        <v>0.45390000000000003</v>
+      </c>
       <c r="K13" s="49">
         <v>0.45229999999999998</v>
       </c>
       <c r="L13" s="49">
         <v>0.45639999999999997</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
+      <c r="M13" s="49">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="N13" s="49">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="O13" s="56">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0.50049999999999994</v>
+      </c>
       <c r="Q13" s="56">
         <v>0.4945</v>
       </c>
       <c r="R13" s="56">
         <v>0.48959999999999998</v>
       </c>
-      <c r="S13" s="56"/>
+      <c r="S13" s="56">
+        <v>0.4929</v>
+      </c>
       <c r="T13" s="50" t="e">
         <f>(Q13+R13+S13+#REF!+O13+P13)/6</f>
         <v>#REF!</v>
@@ -9477,395 +9522,439 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y13" s="41" t="e">
+      <c r="Y13" s="41">
+        <f t="shared" si="4"/>
+        <v>6.7847237038617322E-2</v>
+      </c>
+      <c r="Z13" s="41" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD13" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF13" s="81">
+        <v>11</v>
+      </c>
+      <c r="AG13" s="81">
+        <v>7</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" ref="AX13:AX31" si="5">AX12+3</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="7:50" x14ac:dyDescent="0.3">
+      <c r="G14" s="101"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="49">
+        <v>5.62E-2</v>
+      </c>
+      <c r="K14" s="49">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="L14" s="49">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="M14" s="49">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="N14" s="49">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="O14" s="56">
+        <v>8.77E-2</v>
+      </c>
+      <c r="P14" s="56">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="R14" s="56">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="S14" s="56">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="T14" s="50" t="e">
+        <f>(Q14+R14+S14+#REF!+O14+P14)/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U14" s="41" t="e">
+        <f>(T14-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V14" s="41" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X14" s="41" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="4"/>
+        <v>0.53858520900321538</v>
+      </c>
+      <c r="Z14" s="41" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="7:50" x14ac:dyDescent="0.3">
+      <c r="G15" s="102"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="49">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="K15" s="49">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="L15" s="49">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M15" s="49">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="N15" s="49">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="O15" s="56">
+        <v>0.1014</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0.1079</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>0.1051</v>
+      </c>
+      <c r="R15" s="56">
+        <v>0.104</v>
+      </c>
+      <c r="S15" s="56">
+        <v>0.106</v>
+      </c>
+      <c r="T15" s="50" t="e">
+        <f>(Q15+R15+S15+#REF!+O15+P15)/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U15" s="41" t="e">
+        <f>(T15-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V15" s="41" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X15" s="41" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y15" s="41">
+        <f t="shared" si="4"/>
+        <v>0.38510911424903721</v>
+      </c>
+      <c r="Z15" s="41" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="7:50" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="125" t="e">
+        <f>(Q16+R16+S16+#REF!+O16+P16)/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U16" s="126" t="e">
+        <f>(T16-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V16" s="126" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="126" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X16" s="126" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y16" s="126" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z13" s="41" t="e">
+      <c r="Z16" s="126" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD13" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE13" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF13" s="98">
-        <v>11</v>
-      </c>
-      <c r="AG13" s="98">
-        <v>7</v>
-      </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AD16" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE16" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF16" s="113">
+        <v>8</v>
+      </c>
+      <c r="AG16" s="113">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AX13">
-        <f t="shared" ref="AX13:AX39" si="5">AX12+2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G14" s="105"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="1" t="s">
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AX16">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="7:50" x14ac:dyDescent="0.3">
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="L14" s="49">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="R14" s="56">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="S14" s="56"/>
-      <c r="T14" s="50" t="e">
-        <f>(Q14+R14+S14+#REF!+O14+P14)/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U14" s="41" t="e">
-        <f>(T14-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V14" s="41" t="e">
+      <c r="J17" s="122"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="125" t="e">
+        <f>(Q17+R17+S17+#REF!+O17+P17)/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U17" s="126" t="e">
+        <f>(T17-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V17" s="126" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="W14" s="41" t="e">
+      <c r="W17" s="126" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="X14" s="41" t="e">
+      <c r="X17" s="126" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y14" s="41" t="e">
+      <c r="Y17" s="126" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="41" t="e">
+      <c r="Z17" s="126" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="1" t="s">
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK14" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AX14">
+      <c r="AI17" s="116"/>
+      <c r="AJ17" s="116"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="116"/>
+      <c r="AX17">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G15" s="106"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="7:50" x14ac:dyDescent="0.3">
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="L15" s="49">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56">
-        <v>0.1051</v>
-      </c>
-      <c r="R15" s="56">
-        <v>0.104</v>
-      </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="50" t="e">
-        <f>(Q15+R15+S15+#REF!+O15+P15)/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U15" s="41" t="e">
-        <f>(T15-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V15" s="41" t="e">
+      <c r="J18" s="122"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="125" t="e">
+        <f>(Q18+R18+S18+#REF!+O18+P18)/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U18" s="126" t="e">
+        <f>(T18-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V18" s="126" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="W15" s="41" t="e">
+      <c r="W18" s="126" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="X15" s="41" t="e">
+      <c r="X18" s="126" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y15" s="41" t="e">
+      <c r="Y18" s="126" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z15" s="41" t="e">
+      <c r="Z18" s="126" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="1" t="s">
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK15" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AX15">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="7:50" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="50" t="e">
-        <f>(Q16+R16+S16+#REF!+O16+P16)/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U16" s="41" t="e">
-        <f>(T16-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V16" s="41" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W16" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X16" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y16" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="41" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD16" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE16" s="114" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF16" s="101">
-        <v>8</v>
-      </c>
-      <c r="AG16" s="101">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AX16">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G17" s="105"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="50" t="e">
-        <f>(Q17+R17+S17+#REF!+O17+P17)/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U17" s="41" t="e">
-        <f>(T17-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V17" s="41" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W17" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X17" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y17" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z17" s="41" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="115"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AX17">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G18" s="106"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="50" t="e">
-        <f>(Q18+R18+S18+#REF!+O18+P18)/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U18" s="41" t="e">
-        <f>(T18-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V18" s="41" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W18" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X18" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y18" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z18" s="41" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
       <c r="AX18">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="80" t="s">
         <v>131</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="49">
+        <v>0.55910000000000004</v>
+      </c>
       <c r="K19" s="49">
         <v>0.52139999999999997</v>
       </c>
@@ -9875,8 +9964,12 @@
       <c r="M19" s="57">
         <v>0.53900000000000003</v>
       </c>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
+      <c r="N19" s="57">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="O19" s="58">
+        <v>0.98799999999999999</v>
+      </c>
       <c r="P19" s="58">
         <v>0.98599999999999999</v>
       </c>
@@ -9886,7 +9979,9 @@
       <c r="R19" s="56">
         <v>0.97470000000000001</v>
       </c>
-      <c r="S19" s="56"/>
+      <c r="S19" s="56">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="T19" s="50" t="e">
         <f>(Q19+R19+S19+#REF!+O19+P19)/6</f>
         <v>#REF!</v>
@@ -9915,22 +10010,24 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD19" s="104" t="s">
+      <c r="AD19" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AE19" s="77" t="s">
+      <c r="AE19" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="AF19" s="98">
+      <c r="AF19" s="81">
         <v>2</v>
       </c>
-      <c r="AG19" s="98">
+      <c r="AG19" s="81">
         <v>25</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI19" s="31"/>
+      <c r="AI19" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ19" s="31" t="s">
         <v>85</v>
       </c>
@@ -9940,19 +10037,23 @@
       <c r="AL19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AM19" s="31"/>
+      <c r="AM19" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AX19">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G20" s="105"/>
-      <c r="H20" s="78"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="49"/>
+      <c r="J20" s="49">
+        <v>0.12959999999999999</v>
+      </c>
       <c r="K20" s="49">
         <v>0.1019</v>
       </c>
@@ -9962,8 +10063,12 @@
       <c r="M20" s="49">
         <v>0.1052</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="56"/>
+      <c r="N20" s="49">
+        <v>0.1125</v>
+      </c>
+      <c r="O20" s="56">
+        <v>0.98709999999999998</v>
+      </c>
       <c r="P20" s="56">
         <v>0.98740000000000006</v>
       </c>
@@ -9973,7 +10078,9 @@
       <c r="R20" s="56">
         <v>0.97540000000000004</v>
       </c>
-      <c r="S20" s="56"/>
+      <c r="S20" s="56">
+        <v>0.97819999999999996</v>
+      </c>
       <c r="T20" s="50" t="e">
         <f>(Q20+R20+S20+#REF!+O20+P20)/6</f>
         <v>#REF!</v>
@@ -10002,14 +10109,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD20" s="105"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
       <c r="AH20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AI20" s="31"/>
+      <c r="AI20" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ20" s="31" t="s">
         <v>85</v>
       </c>
@@ -10019,19 +10128,23 @@
       <c r="AL20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AM20" s="31"/>
+      <c r="AM20" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AX20">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G21" s="106"/>
-      <c r="H21" s="78"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="97"/>
       <c r="I21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="49">
+        <v>8.1900000000000001E-2</v>
+      </c>
       <c r="K21" s="49">
         <v>7.3899999999999993E-2</v>
       </c>
@@ -10041,8 +10154,12 @@
       <c r="M21" s="49">
         <v>0.12039999999999999</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="56"/>
+      <c r="N21" s="49">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="O21" s="56">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="P21" s="56">
         <v>0.99609999999999999</v>
       </c>
@@ -10052,7 +10169,9 @@
       <c r="R21" s="56">
         <v>0.99180000000000001</v>
       </c>
-      <c r="S21" s="56"/>
+      <c r="S21" s="56">
+        <v>0.995</v>
+      </c>
       <c r="T21" s="50" t="e">
         <f>(Q21+R21+S21+#REF!+O21+P21)/6</f>
         <v>#REF!</v>
@@ -10081,14 +10200,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
       <c r="AH21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI21" s="31"/>
+      <c r="AI21" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ21" s="31" t="s">
         <v>85</v>
       </c>
@@ -10098,40 +10219,54 @@
       <c r="AL21" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AM21" s="31"/>
+      <c r="AM21" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AX21">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="80" t="s">
         <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="49">
+        <v>0.77080000000000004</v>
+      </c>
       <c r="K22" s="49">
         <v>0.74770000000000003</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
+      <c r="L22" s="49">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="M22" s="49">
+        <v>0.74429999999999996</v>
+      </c>
       <c r="N22" s="59">
         <v>0.73670000000000002</v>
       </c>
       <c r="O22" s="60">
         <v>0.76880000000000004</v>
       </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
+      <c r="P22" s="56">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>0.74880000000000002</v>
+      </c>
       <c r="R22" s="56">
         <v>0.76829999999999998</v>
       </c>
-      <c r="S22" s="56"/>
+      <c r="S22" s="56">
+        <v>0.79659999999999997</v>
+      </c>
       <c r="T22" s="50" t="e">
         <f>(Q22+R22+S22+#REF!+O22+P22)/6</f>
         <v>#REF!</v>
@@ -10152,67 +10287,85 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y22" s="41" t="e">
+      <c r="Y22" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.6966277038828422E-2</v>
       </c>
       <c r="Z22" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD22" s="104" t="s">
+      <c r="AD22" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AE22" s="77" t="s">
+      <c r="AE22" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="AF22" s="98">
+      <c r="AF22" s="81">
         <v>16</v>
       </c>
-      <c r="AG22" s="98">
+      <c r="AG22" s="81">
         <v>2</v>
       </c>
       <c r="AH22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI22" s="31"/>
+      <c r="AI22" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
+      <c r="AK22" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL22" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AM22" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AX22">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G23" s="105"/>
-      <c r="H23" s="78"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="49"/>
+      <c r="J23" s="49">
+        <v>0.14280000000000001</v>
+      </c>
       <c r="K23" s="49">
         <v>0.12839999999999999</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
+      <c r="L23" s="49">
+        <v>9.69E-2</v>
+      </c>
+      <c r="M23" s="49">
+        <v>0.10970000000000001</v>
+      </c>
       <c r="N23" s="61">
         <v>0.1056</v>
       </c>
       <c r="O23" s="62">
         <v>0.1575</v>
       </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
+      <c r="P23" s="56">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>0.1368</v>
+      </c>
       <c r="R23" s="56">
         <v>0.16039999999999999</v>
       </c>
-      <c r="S23" s="56"/>
+      <c r="S23" s="56">
+        <v>0.19869999999999999</v>
+      </c>
       <c r="T23" s="50" t="e">
         <f>(Q23+R23+S23+#REF!+O23+P23)/6</f>
         <v>#REF!</v>
@@ -10233,59 +10386,77 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y23" s="41" t="e">
+      <c r="Y23" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.72014585232452144</v>
       </c>
       <c r="Z23" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
       <c r="AH23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AI23" s="31"/>
+      <c r="AI23" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ23" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
+      <c r="AK23" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL23" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AM23" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AX23">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G24" s="106"/>
-      <c r="H24" s="78"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="49">
+        <v>0.25280000000000002</v>
+      </c>
       <c r="K24" s="49">
         <v>0.22220000000000001</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
+      <c r="L24" s="49">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="M24" s="49">
+        <v>0.20019999999999999</v>
+      </c>
       <c r="N24" s="61">
         <v>0.19350000000000001</v>
       </c>
       <c r="O24" s="62">
         <v>0.26579999999999998</v>
       </c>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
+      <c r="P24" s="56">
+        <v>0.3029</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>0.2293</v>
+      </c>
       <c r="R24" s="56">
         <v>0.26369999999999999</v>
       </c>
-      <c r="S24" s="56"/>
+      <c r="S24" s="56">
+        <v>0.32400000000000001</v>
+      </c>
       <c r="T24" s="50" t="e">
         <f>(Q24+R24+S24+#REF!+O24+P24)/6</f>
         <v>#REF!</v>
@@ -10306,63 +10477,81 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y24" s="41" t="e">
+      <c r="Y24" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.5129870129870131</v>
       </c>
       <c r="Z24" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="78"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
       <c r="AH24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI24" s="31"/>
+      <c r="AI24" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ24" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
+      <c r="AK24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL24" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AM24" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AX24">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G25" s="104" t="s">
+      <c r="G25" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="93" t="s">
         <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
+      <c r="J25" s="49">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="K25" s="49">
+        <v>0.48209999999999997</v>
+      </c>
       <c r="L25" s="49">
         <v>0.48399999999999999</v>
       </c>
-      <c r="M25" s="49"/>
+      <c r="M25" s="49">
+        <v>0.46739999999999998</v>
+      </c>
       <c r="N25" s="49">
         <v>0.49809999999999999</v>
       </c>
       <c r="O25" s="56">
         <v>0.89080000000000004</v>
       </c>
-      <c r="P25" s="56"/>
+      <c r="P25" s="56">
+        <v>0.89959999999999996</v>
+      </c>
       <c r="Q25" s="56">
         <v>0.89929999999999999</v>
       </c>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
+      <c r="R25" s="56">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="S25" s="56">
+        <v>0.90010000000000001</v>
+      </c>
       <c r="T25" s="50" t="e">
         <f>(Q25+R25+S25+#REF!+O25+P25)/6</f>
         <v>#REF!</v>
@@ -10383,65 +10572,85 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y25" s="41" t="e">
+      <c r="Y25" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.92468977321352164</v>
       </c>
       <c r="Z25" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD25" s="104" t="s">
+      <c r="AD25" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="AE25" s="75" t="s">
+      <c r="AE25" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AF25" s="98">
+      <c r="AF25" s="81">
         <v>12</v>
       </c>
-      <c r="AG25" s="98">
+      <c r="AG25" s="81">
         <v>5</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
+      <c r="AI25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ25" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AK25" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
+      <c r="AL25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM25" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AX25">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G26" s="105"/>
-      <c r="H26" s="82"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="J26" s="49">
+        <v>9.11E-2</v>
+      </c>
+      <c r="K26" s="49">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="L26" s="49">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="M26" s="49"/>
+      <c r="M26" s="49">
+        <v>8.8900000000000007E-2</v>
+      </c>
       <c r="N26" s="49">
         <v>0.113</v>
       </c>
       <c r="O26" s="56">
         <v>0.73040000000000005</v>
       </c>
-      <c r="P26" s="56"/>
+      <c r="P26" s="56">
+        <v>0.73929999999999996</v>
+      </c>
       <c r="Q26" s="56">
         <v>0.74170000000000003</v>
       </c>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
+      <c r="R26" s="56">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="S26" s="56">
+        <v>0.74399999999999999</v>
+      </c>
       <c r="T26" s="50" t="e">
         <f>(Q26+R26+S26+#REF!+O26+P26)/6</f>
         <v>#REF!</v>
@@ -10462,57 +10671,77 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y26" s="41" t="e">
+      <c r="Y26" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.316085489313835</v>
       </c>
       <c r="Z26" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
       <c r="AH26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
+      <c r="AI26" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ26" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AK26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
+      <c r="AL26" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM26" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AX26">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G27" s="106"/>
-      <c r="H27" s="82"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="J27" s="49">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="K27" s="49">
+        <v>9.3799999999999994E-2</v>
+      </c>
       <c r="L27" s="49">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="49">
+        <v>8.4599999999999995E-2</v>
+      </c>
       <c r="N27" s="49">
         <v>0.1101</v>
       </c>
       <c r="O27" s="56">
         <v>0.74</v>
       </c>
-      <c r="P27" s="56"/>
+      <c r="P27" s="56">
+        <v>0.75029999999999997</v>
+      </c>
       <c r="Q27" s="56">
         <v>0.75529999999999997</v>
       </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
+      <c r="R27" s="56">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="S27" s="56">
+        <v>0.75680000000000003</v>
+      </c>
       <c r="T27" s="50" t="e">
         <f>(Q27+R27+S27+#REF!+O27+P27)/6</f>
         <v>#REF!</v>
@@ -10533,38 +10762,46 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y27" s="41" t="e">
+      <c r="Y27" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.8687943262411348</v>
       </c>
       <c r="Z27" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
       <c r="AH27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
+      <c r="AI27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ27" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AK27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
+      <c r="AL27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM27" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AX27">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="93" t="s">
         <v>227</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10628,16 +10865,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD28" s="98" t="s">
+      <c r="AD28" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="AE28" s="81" t="s">
+      <c r="AE28" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="AF28" s="98">
+      <c r="AF28" s="81">
         <v>3</v>
       </c>
-      <c r="AG28" s="98">
+      <c r="AG28" s="81">
         <v>10</v>
       </c>
       <c r="AH28" s="1" t="s">
@@ -10660,12 +10897,12 @@
       </c>
       <c r="AX28">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G29" s="99"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="1" t="s">
         <v>4</v>
       </c>
@@ -10727,10 +10964,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
       <c r="AH29" s="1" t="s">
         <v>4</v>
       </c>
@@ -10743,20 +10980,20 @@
       <c r="AK29" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AL29" s="74" t="s">
+      <c r="AL29" s="73" t="s">
         <v>232</v>
       </c>
       <c r="AM29" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AX29">
-        <f>AX28+2</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G30" s="100"/>
-      <c r="H30" s="82"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="1" t="s">
         <v>5</v>
       </c>
@@ -10818,10 +11055,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="100"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="99"/>
       <c r="AH30" s="1" t="s">
         <v>5</v>
       </c>
@@ -10834,7 +11071,7 @@
       <c r="AK30" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AL30" s="74" t="s">
+      <c r="AL30" s="73" t="s">
         <v>233</v>
       </c>
       <c r="AM30" s="31" t="s">
@@ -10842,37 +11079,49 @@
       </c>
       <c r="AX30">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="74" t="s">
         <v>128</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="J31" s="49">
+        <v>0.5696</v>
+      </c>
+      <c r="K31" s="49">
+        <v>0.57040000000000002</v>
+      </c>
       <c r="L31" s="49">
         <v>0.58189999999999997</v>
       </c>
-      <c r="M31" s="49"/>
+      <c r="M31" s="49">
+        <v>0.62860000000000005</v>
+      </c>
       <c r="N31" s="49">
         <v>0.55320000000000003</v>
       </c>
       <c r="O31" s="56">
         <v>0.63600000000000001</v>
       </c>
-      <c r="P31" s="56"/>
+      <c r="P31" s="56">
+        <v>0.66390000000000005</v>
+      </c>
       <c r="Q31" s="56">
         <v>0.63519999999999999</v>
       </c>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
+      <c r="R31" s="56">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="S31" s="56">
+        <v>0.62780000000000002</v>
+      </c>
       <c r="T31" s="50" t="e">
         <f>(Q31+R31+S31+#REF!+O31+P31)/6</f>
         <v>#REF!</v>
@@ -10893,67 +11142,85 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y31" s="41" t="e">
+      <c r="Y31" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.6156538339166395E-2</v>
       </c>
       <c r="Z31" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD31" s="75" t="s">
+      <c r="AD31" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="AE31" s="75" t="s">
+      <c r="AE31" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AF31" s="98">
+      <c r="AF31" s="81">
         <v>9</v>
       </c>
-      <c r="AG31" s="98">
+      <c r="AG31" s="81">
         <v>15</v>
       </c>
       <c r="AH31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
+      <c r="AI31" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ31" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AK31" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AL31" s="31"/>
+      <c r="AL31" s="31" t="s">
+        <v>239</v>
+      </c>
       <c r="AM31" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AX31">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
+      <c r="J32" s="49">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="K32" s="49">
+        <v>0.28220000000000001</v>
+      </c>
       <c r="L32" s="49">
         <v>0.32119999999999999</v>
       </c>
-      <c r="M32" s="49"/>
+      <c r="M32" s="49">
+        <v>0.27160000000000001</v>
+      </c>
       <c r="N32" s="49">
         <v>0.32529999999999998</v>
       </c>
       <c r="O32" s="56">
         <v>0.39</v>
       </c>
-      <c r="P32" s="56"/>
+      <c r="P32" s="56">
+        <v>0.33760000000000001</v>
+      </c>
       <c r="Q32" s="56">
         <v>0.38129999999999997</v>
       </c>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
+      <c r="R32" s="56">
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="S32" s="56">
+        <v>0.3674</v>
+      </c>
       <c r="T32" s="50" t="e">
         <f>(Q32+R32+S32+#REF!+O32+P32)/6</f>
         <v>#REF!</v>
@@ -10974,59 +11241,73 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y32" s="41" t="e">
+      <c r="Y32" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.24300441826215022</v>
       </c>
       <c r="Z32" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="99"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="98"/>
       <c r="AH32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
+      <c r="AI32" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ32" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AK32" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AL32" s="31"/>
+      <c r="AL32" s="31" t="s">
+        <v>208</v>
+      </c>
       <c r="AM32" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AX32">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+    </row>
+    <row r="33" spans="7:39" x14ac:dyDescent="0.3">
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
+      <c r="J33" s="49">
+        <v>0.1784</v>
+      </c>
+      <c r="K33" s="49">
+        <v>0.21890000000000001</v>
+      </c>
       <c r="L33" s="49">
         <v>0.2152</v>
       </c>
-      <c r="M33" s="49"/>
+      <c r="M33" s="49">
+        <v>0.25390000000000001</v>
+      </c>
       <c r="N33" s="49">
         <v>0.19239999999999999</v>
       </c>
       <c r="O33" s="56">
         <v>0.30709999999999998</v>
       </c>
-      <c r="P33" s="56"/>
+      <c r="P33" s="56">
+        <v>0.2802</v>
+      </c>
       <c r="Q33" s="56">
         <v>0.2762</v>
       </c>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
+      <c r="R33" s="56">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="S33" s="56">
+        <v>0.28179999999999999</v>
+      </c>
       <c r="T33" s="50" t="e">
         <f>(Q33+R33+S33+#REF!+O33+P33)/6</f>
         <v>#REF!</v>
@@ -11047,69 +11328,45 @@
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="41" t="e">
+      <c r="Y33" s="41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.10358408822371008</v>
       </c>
       <c r="Z33" s="41" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD33" s="76"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="100"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="99"/>
       <c r="AH33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
+      <c r="AI33" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ33" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="AK33" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="AL33" s="31"/>
+      <c r="AL33" s="31" t="s">
+        <v>240</v>
+      </c>
       <c r="AM33" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="AX33">
-        <f t="shared" si="5"/>
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="AE28:AE30"/>
-    <mergeCell ref="AF28:AF30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AD31:AD33"/>
-    <mergeCell ref="AE31:AE33"/>
-    <mergeCell ref="AF31:AF33"/>
-    <mergeCell ref="AG31:AG33"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AG25:AG27"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AD16:AD18"/>
-    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="G22:G24"/>
@@ -11120,12 +11377,38 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="AE28:AE30"/>
+    <mergeCell ref="AF28:AF30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AF31:AF33"/>
+    <mergeCell ref="AG31:AG33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11133,12 +11416,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11288,15 +11568,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEBF9A0-D8AF-401D-8305-002AE83BEF6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E07B6C-17A1-4746-AFA3-DE9662AB0ED9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d835d5a0-5c76-401f-98b0-6878bdc80b19"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11320,17 +11611,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E07B6C-17A1-4746-AFA3-DE9662AB0ED9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEBF9A0-D8AF-401D-8305-002AE83BEF6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d835d5a0-5c76-401f-98b0-6878bdc80b19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SOM/NewSomExperiment.xlsx
+++ b/SOM/NewSomExperiment.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JupyterDoc\SOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC24205-8516-40C9-9762-78E0F7C484AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D5DB0-1D95-4BE2-9F10-EBA74FEF4967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24104" yWindow="-13" windowWidth="24092" windowHeight="12923" activeTab="3" xr2:uid="{C2EE1D98-ABDB-4289-85B0-BDC7FA1A4C31}"/>
+    <workbookView xWindow="24104" yWindow="-13" windowWidth="24092" windowHeight="12923" activeTab="4" xr2:uid="{C2EE1D98-ABDB-4289-85B0-BDC7FA1A4C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="243">
   <si>
     <t>DataSet</t>
   </si>
@@ -1058,6 +1059,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.0479</t>
+  </si>
+  <si>
+    <t>Kmean</t>
+  </si>
+  <si>
+    <t>when neuron stays the same, how to improve the clutering effect?</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1160,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,6 +1223,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,7 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1439,10 +1458,37 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1451,25 +1497,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,25 +1533,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1524,15 +1573,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,41 +1599,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,7 +2185,7 @@
       <c r="AT2" s="26"/>
     </row>
     <row r="3" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="93" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2150,7 +2200,7 @@
       <c r="K3" s="19">
         <v>0.99</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="83" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -2159,7 +2209,7 @@
       <c r="O3" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="106" t="s">
         <v>36</v>
       </c>
       <c r="Q3" s="1">
@@ -2173,16 +2223,16 @@
         <v>0.3792675356921168</v>
       </c>
       <c r="X3" s="26"/>
-      <c r="Y3" s="74" t="s">
+      <c r="Y3" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="87">
         <v>0.5</v>
       </c>
-      <c r="AA3" s="80" t="s">
+      <c r="AA3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="76">
+      <c r="AB3" s="87">
         <v>12</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -2203,13 +2253,13 @@
       </c>
       <c r="AH3" s="26"/>
       <c r="AM3" s="26"/>
-      <c r="AN3" s="74" t="s">
+      <c r="AN3" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="74">
+      <c r="AO3" s="83">
         <v>30</v>
       </c>
-      <c r="AP3" s="74">
+      <c r="AP3" s="83">
         <v>60</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -2222,7 +2272,7 @@
       <c r="AT3" s="26"/>
     </row>
     <row r="4" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G4" s="86"/>
+      <c r="G4" s="94"/>
       <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2235,14 +2285,14 @@
       <c r="K4" s="19">
         <v>1</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="P4" s="82"/>
+      <c r="P4" s="104"/>
       <c r="Q4" s="1">
         <v>0.72599999999999998</v>
       </c>
@@ -2254,10 +2304,10 @@
         <v>0.17586776859504136</v>
       </c>
       <c r="X4" s="26"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="76"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="87"/>
       <c r="AC4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2276,9 +2326,9 @@
       </c>
       <c r="AH4" s="26"/>
       <c r="AM4" s="26"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
       <c r="AQ4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2339,7 @@
       <c r="AT4" s="26"/>
     </row>
     <row r="5" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G5" s="86"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2302,14 +2352,14 @@
       <c r="K5" s="19">
         <v>0.99</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="84"/>
       <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="2">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="P5" s="83"/>
+      <c r="P5" s="105"/>
       <c r="Q5" s="1">
         <v>0.60619999999999996</v>
       </c>
@@ -2321,16 +2371,16 @@
         <v>0.54651930056087106</v>
       </c>
       <c r="X5" s="26"/>
-      <c r="Y5" s="74" t="s">
+      <c r="Y5" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="76">
+      <c r="Z5" s="87">
         <v>0.5</v>
       </c>
-      <c r="AA5" s="80" t="s">
+      <c r="AA5" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="76">
+      <c r="AB5" s="87">
         <v>30</v>
       </c>
       <c r="AC5" s="1" t="s">
@@ -2351,9 +2401,9 @@
       </c>
       <c r="AH5" s="26"/>
       <c r="AM5" s="26"/>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="75"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
       <c r="AQ5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2414,7 @@
       <c r="AT5" s="26"/>
     </row>
     <row r="6" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="87" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2379,7 +2429,7 @@
       <c r="K6" s="20">
         <v>0</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="87" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2388,7 +2438,7 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="84"/>
+      <c r="P6" s="103"/>
       <c r="Q6" s="1">
         <v>0.76870000000000005</v>
       </c>
@@ -2400,10 +2450,10 @@
         <v>0.26707428125406518</v>
       </c>
       <c r="X6" s="26"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="76"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="87"/>
       <c r="AC6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2422,13 +2472,13 @@
       </c>
       <c r="AH6" s="26"/>
       <c r="AM6" s="26"/>
-      <c r="AN6" s="76" t="s">
+      <c r="AN6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="AO6" s="74">
+      <c r="AO6" s="83">
         <v>30</v>
       </c>
-      <c r="AP6" s="76">
+      <c r="AP6" s="87">
         <v>20</v>
       </c>
       <c r="AQ6" s="1" t="s">
@@ -2441,7 +2491,7 @@
       <c r="AT6" s="26"/>
     </row>
     <row r="7" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="77"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2454,14 +2504,14 @@
       <c r="K7" s="21">
         <v>0</v>
       </c>
-      <c r="M7" s="77"/>
+      <c r="M7" s="88"/>
       <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="82"/>
+      <c r="P7" s="104"/>
       <c r="Q7" s="1">
         <v>0.70286999999999999</v>
       </c>
@@ -2473,16 +2523,16 @@
         <v>0.31458164383171855</v>
       </c>
       <c r="X7" s="26"/>
-      <c r="Y7" s="74" t="s">
+      <c r="Y7" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="76">
+      <c r="Z7" s="87">
         <v>0.3</v>
       </c>
-      <c r="AA7" s="80" t="s">
+      <c r="AA7" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="76">
+      <c r="AB7" s="87">
         <v>21</v>
       </c>
       <c r="AC7" s="1" t="s">
@@ -2503,9 +2553,9 @@
       </c>
       <c r="AH7" s="26"/>
       <c r="AM7" s="26"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="77"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="88"/>
       <c r="AQ7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2516,7 +2566,7 @@
       <c r="AT7" s="26"/>
     </row>
     <row r="8" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G8" s="77"/>
+      <c r="G8" s="88"/>
       <c r="I8" s="3">
         <v>1</v>
       </c>
@@ -2526,14 +2576,14 @@
       <c r="K8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="77"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="83"/>
+      <c r="P8" s="105"/>
       <c r="Q8" s="1">
         <v>0.71413000000000004</v>
       </c>
@@ -2545,10 +2595,10 @@
         <v>0.34943217621441469</v>
       </c>
       <c r="X8" s="26"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="76"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="87"/>
       <c r="AC8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2567,9 +2617,9 @@
       </c>
       <c r="AH8" s="26"/>
       <c r="AM8" s="26"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="77"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="88"/>
       <c r="AQ8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2630,7 @@
       <c r="AT8" s="26"/>
     </row>
     <row r="9" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="87" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2595,7 +2645,7 @@
       <c r="K9" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="87" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2616,16 +2666,16 @@
         <v>0.58117948717948709</v>
       </c>
       <c r="X9" s="26"/>
-      <c r="Y9" s="74" t="s">
+      <c r="Y9" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="76">
+      <c r="Z9" s="87">
         <v>0.4</v>
       </c>
-      <c r="AA9" s="80" t="s">
+      <c r="AA9" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="AB9" s="76">
+      <c r="AB9" s="87">
         <v>43</v>
       </c>
       <c r="AC9" s="1" t="s">
@@ -2646,13 +2696,13 @@
       </c>
       <c r="AH9" s="26"/>
       <c r="AM9" s="26"/>
-      <c r="AN9" s="76" t="s">
+      <c r="AN9" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="AO9" s="76">
+      <c r="AO9" s="87">
         <v>1</v>
       </c>
-      <c r="AP9" s="76">
+      <c r="AP9" s="87">
         <v>30</v>
       </c>
       <c r="AQ9" s="1" t="s">
@@ -2665,7 +2715,7 @@
       <c r="AT9" s="26"/>
     </row>
     <row r="10" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G10" s="77"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2728,7 @@
       <c r="K10" s="22">
         <v>0</v>
       </c>
-      <c r="M10" s="77"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2697,10 +2747,10 @@
         <v>0.2217332430602573</v>
       </c>
       <c r="X10" s="26"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="76"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="87"/>
       <c r="AC10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2719,9 +2769,9 @@
       </c>
       <c r="AH10" s="26"/>
       <c r="AM10" s="26"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
       <c r="AQ10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2782,7 @@
       <c r="AT10" s="26"/>
     </row>
     <row r="11" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G11" s="77"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2795,7 @@
       <c r="K11" s="22">
         <v>0</v>
       </c>
-      <c r="M11" s="77"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2764,16 +2814,16 @@
         <v>0.74810537712017311</v>
       </c>
       <c r="X11" s="26"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="76">
+      <c r="Z11" s="87">
         <v>0.4</v>
       </c>
-      <c r="AA11" s="80" t="s">
+      <c r="AA11" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="76">
+      <c r="AB11" s="87">
         <v>15</v>
       </c>
       <c r="AC11" s="1" t="s">
@@ -2794,9 +2844,9 @@
       </c>
       <c r="AH11" s="26"/>
       <c r="AM11" s="26"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
       <c r="AQ11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2857,7 @@
       <c r="AT11" s="26"/>
     </row>
     <row r="12" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="95" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2822,7 +2872,7 @@
       <c r="K12" s="23">
         <v>0.34699999999999998</v>
       </c>
-      <c r="M12" s="76" t="s">
+      <c r="M12" s="87" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -2843,10 +2893,10 @@
         <v>0.49153180278509595</v>
       </c>
       <c r="X12" s="26"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="76"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="87"/>
       <c r="AC12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2865,13 +2915,13 @@
       </c>
       <c r="AH12" s="26"/>
       <c r="AM12" s="26"/>
-      <c r="AN12" s="76" t="s">
+      <c r="AN12" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="AO12" s="76">
+      <c r="AO12" s="87">
         <v>10</v>
       </c>
-      <c r="AP12" s="76">
+      <c r="AP12" s="87">
         <v>20</v>
       </c>
       <c r="AQ12" s="1" t="s">
@@ -2884,7 +2934,7 @@
       <c r="AT12" s="26"/>
     </row>
     <row r="13" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G13" s="88"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +2948,7 @@
       <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="M13" s="77"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2917,16 +2967,16 @@
         <v>1.166739198010569</v>
       </c>
       <c r="X13" s="26"/>
-      <c r="Y13" s="74" t="s">
+      <c r="Y13" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="76">
+      <c r="Z13" s="87">
         <v>0.5</v>
       </c>
-      <c r="AA13" s="80" t="s">
+      <c r="AA13" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB13" s="76">
+      <c r="AB13" s="87">
         <v>24</v>
       </c>
       <c r="AC13" s="1" t="s">
@@ -2947,9 +2997,9 @@
       </c>
       <c r="AH13" s="26"/>
       <c r="AM13" s="26"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
       <c r="AQ13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2960,7 +3010,7 @@
       <c r="AT13" s="26"/>
     </row>
     <row r="14" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G14" s="88"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +3024,7 @@
       <c r="K14" s="23">
         <v>0.89</v>
       </c>
-      <c r="M14" s="77"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2993,10 +3043,10 @@
         <v>3.1093519278096799</v>
       </c>
       <c r="X14" s="26"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="76"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="87"/>
       <c r="AC14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3015,9 +3065,9 @@
       </c>
       <c r="AH14" s="26"/>
       <c r="AM14" s="26"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
       <c r="AQ14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3078,7 @@
       <c r="AT14" s="26"/>
     </row>
     <row r="15" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="97" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3044,7 +3094,7 @@
       <c r="K15" s="23">
         <v>0.82299999999999995</v>
       </c>
-      <c r="M15" s="78" t="s">
+      <c r="M15" s="101" t="s">
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -3065,16 +3115,16 @@
         <v>0.44909090909090921</v>
       </c>
       <c r="X15" s="26"/>
-      <c r="Y15" s="74" t="s">
+      <c r="Y15" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="76">
+      <c r="Z15" s="87">
         <v>0.6</v>
       </c>
-      <c r="AA15" s="80" t="s">
+      <c r="AA15" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="AB15" s="76">
+      <c r="AB15" s="87">
         <v>48</v>
       </c>
       <c r="AC15" s="1" t="s">
@@ -3095,13 +3145,13 @@
       </c>
       <c r="AH15" s="26"/>
       <c r="AM15" s="26"/>
-      <c r="AN15" s="78" t="s">
+      <c r="AN15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="76">
+      <c r="AO15" s="87">
         <v>10</v>
       </c>
-      <c r="AP15" s="76">
+      <c r="AP15" s="87">
         <v>20</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -3114,7 +3164,7 @@
       <c r="AT15" s="26"/>
     </row>
     <row r="16" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G16" s="90"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3178,7 @@
       <c r="K16" s="23">
         <v>0.99</v>
       </c>
-      <c r="M16" s="79"/>
+      <c r="M16" s="102"/>
       <c r="N16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3147,10 +3197,10 @@
         <v>0.56730960429508848</v>
       </c>
       <c r="X16" s="26"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="76"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="87"/>
       <c r="AC16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3169,9 +3219,9 @@
       </c>
       <c r="AH16" s="26"/>
       <c r="AM16" s="26"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
+      <c r="AN16" s="102"/>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="88"/>
       <c r="AQ16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3182,7 +3232,7 @@
       <c r="AT16" s="26"/>
     </row>
     <row r="17" spans="7:46" ht="16.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="90"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3246,7 @@
       <c r="K17" s="23">
         <v>0.99</v>
       </c>
-      <c r="M17" s="79"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3215,16 +3265,16 @@
         <v>1.187862950058072</v>
       </c>
       <c r="X17" s="26"/>
-      <c r="Y17" s="74" t="s">
+      <c r="Y17" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="76">
+      <c r="Z17" s="87">
         <v>0.8</v>
       </c>
-      <c r="AA17" s="80" t="s">
+      <c r="AA17" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AB17" s="76">
+      <c r="AB17" s="87">
         <v>20</v>
       </c>
       <c r="AC17" s="1" t="s">
@@ -3245,9 +3295,9 @@
       </c>
       <c r="AH17" s="26"/>
       <c r="AM17" s="26"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
       <c r="AQ17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3308,7 @@
       <c r="AT17" s="26"/>
     </row>
     <row r="18" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="99" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3273,7 +3323,7 @@
       <c r="K18" s="20">
         <v>0</v>
       </c>
-      <c r="M18" s="76" t="s">
+      <c r="M18" s="87" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -3294,10 +3344,10 @@
         <v>1.3529411764705881</v>
       </c>
       <c r="X18" s="26"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="76"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="87"/>
       <c r="AC18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3316,13 +3366,13 @@
       </c>
       <c r="AH18" s="26"/>
       <c r="AM18" s="26"/>
-      <c r="AN18" s="76" t="s">
+      <c r="AN18" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AO18" s="76">
+      <c r="AO18" s="87">
         <v>10</v>
       </c>
-      <c r="AP18" s="76">
+      <c r="AP18" s="87">
         <v>20</v>
       </c>
       <c r="AQ18" s="1" t="s">
@@ -3335,7 +3385,7 @@
       <c r="AT18" s="26"/>
     </row>
     <row r="19" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G19" s="92"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3348,7 +3398,7 @@
       <c r="K19" s="20">
         <v>0</v>
       </c>
-      <c r="M19" s="77"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3367,16 +3417,16 @@
         <v>2.0337308347529812</v>
       </c>
       <c r="X19" s="26"/>
-      <c r="Y19" s="74" t="s">
+      <c r="Y19" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="Z19" s="76">
+      <c r="Z19" s="87">
         <v>0.6</v>
       </c>
-      <c r="AA19" s="80" t="s">
+      <c r="AA19" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="AB19" s="76">
+      <c r="AB19" s="87">
         <v>18</v>
       </c>
       <c r="AC19" s="1" t="s">
@@ -3397,9 +3447,9 @@
       </c>
       <c r="AH19" s="26"/>
       <c r="AM19" s="26"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
+      <c r="AN19" s="88"/>
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="88"/>
       <c r="AQ19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3460,7 @@
       <c r="AT19" s="26"/>
     </row>
     <row r="20" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G20" s="92"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3423,7 +3473,7 @@
       <c r="K20" s="20">
         <v>0</v>
       </c>
-      <c r="M20" s="77"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3442,10 +3492,10 @@
         <v>13.420970266040689</v>
       </c>
       <c r="X20" s="26"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="76"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="87"/>
       <c r="AC20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3464,9 +3514,9 @@
       </c>
       <c r="AH20" s="26"/>
       <c r="AM20" s="26"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
+      <c r="AN20" s="88"/>
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="88"/>
       <c r="AQ20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3477,7 +3527,7 @@
       <c r="AT20" s="26"/>
     </row>
     <row r="21" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="87" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3490,7 +3540,7 @@
       <c r="K21" s="20">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="M21" s="76" t="s">
+      <c r="M21" s="87" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -3522,13 +3572,13 @@
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
       <c r="AM21" s="26"/>
-      <c r="AN21" s="76" t="s">
+      <c r="AN21" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AO21" s="76">
+      <c r="AO21" s="87">
         <v>10</v>
       </c>
-      <c r="AP21" s="76">
+      <c r="AP21" s="87">
         <v>30</v>
       </c>
       <c r="AQ21" s="1" t="s">
@@ -3541,7 +3591,7 @@
       <c r="AT21" s="26"/>
     </row>
     <row r="22" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G22" s="77"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +3602,7 @@
       <c r="K22" s="24">
         <v>0.99</v>
       </c>
-      <c r="M22" s="77"/>
+      <c r="M22" s="88"/>
       <c r="N22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3582,9 +3632,9 @@
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
       <c r="AM22" s="26"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
+      <c r="AN22" s="88"/>
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="88"/>
       <c r="AQ22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3595,7 +3645,7 @@
       <c r="AT22" s="26"/>
     </row>
     <row r="23" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G23" s="77"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3606,7 +3656,7 @@
       <c r="K23" s="24">
         <v>0.99</v>
       </c>
-      <c r="M23" s="77"/>
+      <c r="M23" s="88"/>
       <c r="N23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3636,9 +3686,9 @@
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
       <c r="AM23" s="26"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
       <c r="AQ23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3699,7 @@
       <c r="AT23" s="26"/>
     </row>
     <row r="24" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="87" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3664,7 +3714,7 @@
       <c r="K24" s="20">
         <v>0</v>
       </c>
-      <c r="M24" s="76" t="s">
+      <c r="M24" s="87" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3673,7 +3723,7 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="84">
+      <c r="P24" s="103">
         <v>10</v>
       </c>
       <c r="Q24" s="1">
@@ -3698,13 +3748,13 @@
       <c r="AG24" s="26"/>
       <c r="AH24" s="26"/>
       <c r="AM24" s="26"/>
-      <c r="AN24" s="76" t="s">
+      <c r="AN24" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="AO24" s="76">
+      <c r="AO24" s="87">
         <v>30</v>
       </c>
-      <c r="AP24" s="76">
+      <c r="AP24" s="87">
         <v>20</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -3717,7 +3767,7 @@
       <c r="AT24" s="26"/>
     </row>
     <row r="25" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G25" s="77"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3730,14 +3780,14 @@
       <c r="K25" s="25">
         <v>0</v>
       </c>
-      <c r="M25" s="77"/>
+      <c r="M25" s="88"/>
       <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="2">
         <v>1E-4</v>
       </c>
-      <c r="P25" s="82"/>
+      <c r="P25" s="104"/>
       <c r="Q25" s="1">
         <v>0.34460000000000002</v>
       </c>
@@ -3760,9 +3810,9 @@
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
       <c r="AM25" s="26"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="88"/>
+      <c r="AP25" s="88"/>
       <c r="AQ25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3773,7 +3823,7 @@
       <c r="AT25" s="26"/>
     </row>
     <row r="26" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G26" s="77"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3784,14 +3834,14 @@
       <c r="K26" s="25">
         <v>0</v>
       </c>
-      <c r="M26" s="77"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="83"/>
+      <c r="P26" s="105"/>
       <c r="Q26" s="1">
         <v>0.37759999999999999</v>
       </c>
@@ -3814,9 +3864,9 @@
       <c r="AG26" s="26"/>
       <c r="AH26" s="26"/>
       <c r="AM26" s="26"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="77"/>
+      <c r="AN26" s="88"/>
+      <c r="AO26" s="88"/>
+      <c r="AP26" s="88"/>
       <c r="AQ26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +3877,7 @@
       <c r="AT26" s="26"/>
     </row>
     <row r="27" spans="7:46" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="87" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3843,7 +3893,7 @@
       <c r="K27" s="20">
         <v>0</v>
       </c>
-      <c r="M27" s="76" t="s">
+      <c r="M27" s="87" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3872,13 +3922,13 @@
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
       <c r="AM27" s="26"/>
-      <c r="AN27" s="76" t="s">
+      <c r="AN27" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AO27" s="76">
+      <c r="AO27" s="87">
         <v>10</v>
       </c>
-      <c r="AP27" s="76">
+      <c r="AP27" s="87">
         <v>30</v>
       </c>
       <c r="AQ27" s="1" t="s">
@@ -3891,7 +3941,7 @@
       <c r="AT27" s="26"/>
     </row>
     <row r="28" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G28" s="77"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3905,7 +3955,7 @@
       <c r="K28" s="20">
         <v>0</v>
       </c>
-      <c r="M28" s="77"/>
+      <c r="M28" s="88"/>
       <c r="N28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3924,9 +3974,9 @@
         <v>0.34424257770462752</v>
       </c>
       <c r="AM28" s="26"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="77"/>
+      <c r="AN28" s="88"/>
+      <c r="AO28" s="88"/>
+      <c r="AP28" s="88"/>
       <c r="AQ28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3937,7 +3987,7 @@
       <c r="AT28" s="26"/>
     </row>
     <row r="29" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G29" s="77"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3951,7 +4001,7 @@
       <c r="K29" s="20">
         <v>0</v>
       </c>
-      <c r="M29" s="77"/>
+      <c r="M29" s="88"/>
       <c r="N29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3970,9 +4020,9 @@
         <v>1.2272466146901928</v>
       </c>
       <c r="AM29" s="26"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="88"/>
+      <c r="AP29" s="88"/>
       <c r="AQ29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +4033,7 @@
       <c r="AT29" s="26"/>
     </row>
     <row r="30" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G30" s="76" t="s">
+      <c r="G30" s="87" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -4015,7 +4065,7 @@
       <c r="AT30" s="26"/>
     </row>
     <row r="31" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G31" s="77"/>
+      <c r="G31" s="88"/>
       <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4045,7 +4095,7 @@
       <c r="AT31" s="26"/>
     </row>
     <row r="32" spans="7:46" x14ac:dyDescent="0.3">
-      <c r="G32" s="77"/>
+      <c r="G32" s="88"/>
       <c r="H32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4120,7 @@
       <c r="AT32" s="26"/>
     </row>
     <row r="33" spans="7:44" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="9" t="s">
@@ -4088,7 +4138,7 @@
       </c>
     </row>
     <row r="34" spans="7:44" ht="45.1" x14ac:dyDescent="0.3">
-      <c r="G34" s="86"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="9" t="s">
         <v>4</v>
       </c>
@@ -4144,7 +4194,7 @@
       </c>
     </row>
     <row r="35" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G35" s="86"/>
+      <c r="G35" s="94"/>
       <c r="H35" s="9" t="s">
         <v>5</v>
       </c>
@@ -4158,16 +4208,16 @@
       <c r="K35" s="10">
         <v>0.99</v>
       </c>
-      <c r="Y35" s="74" t="s">
+      <c r="Y35" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Z35" s="76">
+      <c r="Z35" s="87">
         <v>0.5</v>
       </c>
-      <c r="AA35" s="80" t="s">
+      <c r="AA35" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB35" s="76">
+      <c r="AB35" s="87">
         <v>12</v>
       </c>
       <c r="AC35" s="1" t="s">
@@ -4186,18 +4236,18 @@
       <c r="AG35" s="1">
         <v>36</v>
       </c>
-      <c r="AN35" s="74" t="s">
+      <c r="AN35" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="74" t="s">
+      <c r="AO35" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="AP35" s="74"/>
+      <c r="AP35" s="83"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="4"/>
     </row>
     <row r="36" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G36" s="76" t="s">
+      <c r="G36" s="87" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -4213,10 +4263,10 @@
       <c r="K36" s="2">
         <v>0.99</v>
       </c>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="80"/>
-      <c r="AB36" s="76"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="87"/>
       <c r="AC36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4233,9 +4283,9 @@
       <c r="AG36" s="13">
         <v>36</v>
       </c>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="75"/>
-      <c r="AP36" s="75"/>
+      <c r="AN36" s="84"/>
+      <c r="AO36" s="84"/>
+      <c r="AP36" s="84"/>
       <c r="AQ36" s="1" t="s">
         <v>4</v>
       </c>
@@ -4244,7 +4294,7 @@
       </c>
     </row>
     <row r="37" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G37" s="77"/>
+      <c r="G37" s="88"/>
       <c r="H37" s="1" t="s">
         <v>4</v>
       </c>
@@ -4258,7 +4308,7 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="87" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -4268,16 +4318,16 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="P37" s="27"/>
-      <c r="Y37" s="74" t="s">
+      <c r="Y37" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="76">
+      <c r="Z37" s="87">
         <v>0.5</v>
       </c>
-      <c r="AA37" s="80" t="s">
+      <c r="AA37" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB37" s="76">
+      <c r="AB37" s="87">
         <v>30</v>
       </c>
       <c r="AC37" s="1" t="s">
@@ -4296,9 +4346,9 @@
       <c r="AG37" s="1">
         <v>211</v>
       </c>
-      <c r="AN37" s="75"/>
-      <c r="AO37" s="75"/>
-      <c r="AP37" s="75"/>
+      <c r="AN37" s="84"/>
+      <c r="AO37" s="84"/>
+      <c r="AP37" s="84"/>
       <c r="AQ37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4307,7 +4357,7 @@
       </c>
     </row>
     <row r="38" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="G38" s="77"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4321,7 +4371,7 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="M38" s="77"/>
+      <c r="M38" s="88"/>
       <c r="N38" s="1" t="s">
         <v>4</v>
       </c>
@@ -4339,10 +4389,10 @@
         <f>(R38-Q38)/Q38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="76"/>
+      <c r="Y38" s="83"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="87"/>
       <c r="AC38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4359,18 +4409,18 @@
       <c r="AG38" s="1">
         <v>211</v>
       </c>
-      <c r="AN38" s="74" t="s">
+      <c r="AN38" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="AO38" s="93" t="s">
+      <c r="AO38" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="AP38" s="76"/>
+      <c r="AP38" s="87"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="31"/>
     </row>
     <row r="39" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M39" s="77"/>
+      <c r="M39" s="88"/>
       <c r="N39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4378,16 +4428,16 @@
         <v>0</v>
       </c>
       <c r="P39" s="27"/>
-      <c r="Y39" s="74" t="s">
+      <c r="Y39" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Z39" s="76">
+      <c r="Z39" s="87">
         <v>0.3</v>
       </c>
-      <c r="AA39" s="80" t="s">
+      <c r="AA39" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB39" s="76">
+      <c r="AB39" s="87">
         <v>21</v>
       </c>
       <c r="AC39" s="1" t="s">
@@ -4406,9 +4456,9 @@
       <c r="AG39" s="1">
         <v>550</v>
       </c>
-      <c r="AN39" s="75"/>
-      <c r="AO39" s="94"/>
-      <c r="AP39" s="77"/>
+      <c r="AN39" s="84"/>
+      <c r="AO39" s="90"/>
+      <c r="AP39" s="88"/>
       <c r="AQ39" s="1" t="s">
         <v>4</v>
       </c>
@@ -4417,7 +4467,7 @@
       </c>
     </row>
     <row r="40" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M40" s="74" t="s">
+      <c r="M40" s="83" t="s">
         <v>21</v>
       </c>
       <c r="N40" s="13" t="s">
@@ -4428,10 +4478,10 @@
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="76"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="87"/>
       <c r="AC40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4448,9 +4498,9 @@
       <c r="AG40" s="1">
         <v>581</v>
       </c>
-      <c r="AN40" s="75"/>
-      <c r="AO40" s="94"/>
-      <c r="AP40" s="77"/>
+      <c r="AN40" s="84"/>
+      <c r="AO40" s="90"/>
+      <c r="AP40" s="88"/>
       <c r="AQ40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4459,7 +4509,7 @@
       </c>
     </row>
     <row r="41" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M41" s="75"/>
+      <c r="M41" s="84"/>
       <c r="N41" s="13" t="s">
         <v>4</v>
       </c>
@@ -4468,16 +4518,16 @@
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="Y41" s="74" t="s">
+      <c r="Y41" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="Z41" s="76">
+      <c r="Z41" s="87">
         <v>0.4</v>
       </c>
-      <c r="AA41" s="80" t="s">
+      <c r="AA41" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="76">
+      <c r="AB41" s="87">
         <v>43</v>
       </c>
       <c r="AC41" s="1" t="s">
@@ -4496,18 +4546,18 @@
       <c r="AG41" s="1">
         <v>45</v>
       </c>
-      <c r="AN41" s="74" t="s">
+      <c r="AN41" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="AO41" s="93" t="s">
+      <c r="AO41" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="AP41" s="76"/>
+      <c r="AP41" s="87"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="4"/>
     </row>
     <row r="42" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="M42" s="75"/>
+      <c r="M42" s="84"/>
       <c r="N42" s="13" t="s">
         <v>5</v>
       </c>
@@ -4516,10 +4566,10 @@
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="76"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="76"/>
+      <c r="Y42" s="83"/>
+      <c r="Z42" s="87"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="87"/>
       <c r="AC42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4536,9 +4586,9 @@
       <c r="AG42" s="1">
         <v>45</v>
       </c>
-      <c r="AN42" s="75"/>
-      <c r="AO42" s="94"/>
-      <c r="AP42" s="77"/>
+      <c r="AN42" s="84"/>
+      <c r="AO42" s="90"/>
+      <c r="AP42" s="88"/>
       <c r="AQ42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4547,16 +4597,16 @@
       </c>
     </row>
     <row r="43" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y43" s="74" t="s">
+      <c r="Y43" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Z43" s="76">
+      <c r="Z43" s="87">
         <v>0.4</v>
       </c>
-      <c r="AA43" s="80" t="s">
+      <c r="AA43" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB43" s="76">
+      <c r="AB43" s="87">
         <v>15</v>
       </c>
       <c r="AC43" s="1" t="s">
@@ -4575,9 +4625,9 @@
       <c r="AG43" s="1">
         <v>55</v>
       </c>
-      <c r="AN43" s="75"/>
-      <c r="AO43" s="94"/>
-      <c r="AP43" s="77"/>
+      <c r="AN43" s="84"/>
+      <c r="AO43" s="90"/>
+      <c r="AP43" s="88"/>
       <c r="AQ43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4586,10 +4636,10 @@
       </c>
     </row>
     <row r="44" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="76"/>
+      <c r="Y44" s="83"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="87"/>
       <c r="AC44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4606,27 +4656,27 @@
       <c r="AG44" s="1">
         <v>55</v>
       </c>
-      <c r="AN44" s="74" t="s">
+      <c r="AN44" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AO44" s="80" t="s">
+      <c r="AO44" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AP44" s="76"/>
+      <c r="AP44" s="87"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="4"/>
     </row>
     <row r="45" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y45" s="74" t="s">
+      <c r="Y45" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="Z45" s="76">
+      <c r="Z45" s="87">
         <v>0.5</v>
       </c>
-      <c r="AA45" s="80" t="s">
+      <c r="AA45" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB45" s="76">
+      <c r="AB45" s="87">
         <v>24</v>
       </c>
       <c r="AC45" s="1" t="s">
@@ -4645,9 +4695,9 @@
       <c r="AG45" s="1">
         <v>218</v>
       </c>
-      <c r="AN45" s="75"/>
-      <c r="AO45" s="97"/>
-      <c r="AP45" s="77"/>
+      <c r="AN45" s="84"/>
+      <c r="AO45" s="86"/>
+      <c r="AP45" s="88"/>
       <c r="AQ45" s="1" t="s">
         <v>4</v>
       </c>
@@ -4656,10 +4706,10 @@
       </c>
     </row>
     <row r="46" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="80"/>
-      <c r="AB46" s="76"/>
+      <c r="Y46" s="83"/>
+      <c r="Z46" s="87"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="87"/>
       <c r="AC46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4676,9 +4726,9 @@
       <c r="AG46" s="1">
         <v>218</v>
       </c>
-      <c r="AN46" s="75"/>
-      <c r="AO46" s="97"/>
-      <c r="AP46" s="77"/>
+      <c r="AN46" s="84"/>
+      <c r="AO46" s="86"/>
+      <c r="AP46" s="88"/>
       <c r="AQ46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4687,16 +4737,16 @@
       </c>
     </row>
     <row r="47" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y47" s="74" t="s">
+      <c r="Y47" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="Z47" s="76">
+      <c r="Z47" s="87">
         <v>0.6</v>
       </c>
-      <c r="AA47" s="80" t="s">
+      <c r="AA47" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB47" s="76">
+      <c r="AB47" s="87">
         <v>48</v>
       </c>
       <c r="AC47" s="1" t="s">
@@ -4715,21 +4765,21 @@
       <c r="AG47" s="1">
         <v>337</v>
       </c>
-      <c r="AN47" s="95" t="s">
+      <c r="AN47" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="AO47" s="80" t="s">
+      <c r="AO47" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="AP47" s="76"/>
+      <c r="AP47" s="87"/>
       <c r="AQ47" s="1"/>
       <c r="AR47" s="31"/>
     </row>
     <row r="48" spans="7:44" x14ac:dyDescent="0.3">
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="76"/>
-      <c r="AA48" s="80"/>
-      <c r="AB48" s="76"/>
+      <c r="Y48" s="83"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="87"/>
       <c r="AC48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4746,9 +4796,9 @@
       <c r="AG48" s="1">
         <v>450</v>
       </c>
-      <c r="AN48" s="96"/>
-      <c r="AO48" s="97"/>
-      <c r="AP48" s="77"/>
+      <c r="AN48" s="92"/>
+      <c r="AO48" s="86"/>
+      <c r="AP48" s="88"/>
       <c r="AQ48" s="1" t="s">
         <v>4</v>
       </c>
@@ -4757,16 +4807,16 @@
       </c>
     </row>
     <row r="49" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y49" s="74" t="s">
+      <c r="Y49" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="Z49" s="76">
+      <c r="Z49" s="87">
         <v>0.8</v>
       </c>
-      <c r="AA49" s="80" t="s">
+      <c r="AA49" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB49" s="76">
+      <c r="AB49" s="87">
         <v>20</v>
       </c>
       <c r="AC49" s="1" t="s">
@@ -4785,9 +4835,9 @@
       <c r="AG49" s="1">
         <v>108</v>
       </c>
-      <c r="AN49" s="96"/>
-      <c r="AO49" s="97"/>
-      <c r="AP49" s="77"/>
+      <c r="AN49" s="92"/>
+      <c r="AO49" s="86"/>
+      <c r="AP49" s="88"/>
       <c r="AQ49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4796,10 +4846,10 @@
       </c>
     </row>
     <row r="50" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y50" s="74"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="76"/>
+      <c r="Y50" s="83"/>
+      <c r="Z50" s="87"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="87"/>
       <c r="AC50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4816,27 +4866,27 @@
       <c r="AG50" s="1">
         <v>108</v>
       </c>
-      <c r="AN50" s="74" t="s">
+      <c r="AN50" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="AO50" s="80" t="s">
+      <c r="AO50" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="AP50" s="76"/>
+      <c r="AP50" s="87"/>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="31"/>
     </row>
     <row r="51" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y51" s="74" t="s">
+      <c r="Y51" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="Z51" s="76">
+      <c r="Z51" s="87">
         <v>0.6</v>
       </c>
-      <c r="AA51" s="80" t="s">
+      <c r="AA51" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AB51" s="76">
+      <c r="AB51" s="87">
         <v>18</v>
       </c>
       <c r="AC51" s="1" t="s">
@@ -4855,9 +4905,9 @@
       <c r="AG51" s="1">
         <v>84</v>
       </c>
-      <c r="AN51" s="75"/>
-      <c r="AO51" s="97"/>
-      <c r="AP51" s="77"/>
+      <c r="AN51" s="84"/>
+      <c r="AO51" s="86"/>
+      <c r="AP51" s="88"/>
       <c r="AQ51" s="1" t="s">
         <v>4</v>
       </c>
@@ -4866,10 +4916,10 @@
       </c>
     </row>
     <row r="52" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="Y52" s="74"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="80"/>
-      <c r="AB52" s="76"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="87"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="87"/>
       <c r="AC52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4886,9 +4936,9 @@
       <c r="AG52" s="1">
         <v>84</v>
       </c>
-      <c r="AN52" s="75"/>
-      <c r="AO52" s="97"/>
-      <c r="AP52" s="77"/>
+      <c r="AN52" s="84"/>
+      <c r="AO52" s="86"/>
+      <c r="AP52" s="88"/>
       <c r="AQ52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4897,20 +4947,20 @@
       </c>
     </row>
     <row r="53" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN53" s="74" t="s">
+      <c r="AN53" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AO53" s="76" t="s">
+      <c r="AO53" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="AP53" s="76"/>
+      <c r="AP53" s="87"/>
       <c r="AQ53" s="1"/>
       <c r="AR53" s="2"/>
     </row>
     <row r="54" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN54" s="75"/>
-      <c r="AO54" s="77"/>
-      <c r="AP54" s="77"/>
+      <c r="AN54" s="84"/>
+      <c r="AO54" s="88"/>
+      <c r="AP54" s="88"/>
       <c r="AQ54" s="1" t="s">
         <v>4</v>
       </c>
@@ -4920,9 +4970,9 @@
       <c r="AS54" s="36"/>
     </row>
     <row r="55" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN55" s="75"/>
-      <c r="AO55" s="77"/>
-      <c r="AP55" s="77"/>
+      <c r="AN55" s="84"/>
+      <c r="AO55" s="88"/>
+      <c r="AP55" s="88"/>
       <c r="AQ55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4932,20 +4982,20 @@
       <c r="AS55" s="36"/>
     </row>
     <row r="56" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN56" s="74" t="s">
+      <c r="AN56" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AO56" s="80" t="s">
+      <c r="AO56" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AP56" s="76"/>
+      <c r="AP56" s="87"/>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="2"/>
     </row>
     <row r="57" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="97"/>
-      <c r="AP57" s="77"/>
+      <c r="AN57" s="84"/>
+      <c r="AO57" s="86"/>
+      <c r="AP57" s="88"/>
       <c r="AQ57" s="1" t="s">
         <v>4</v>
       </c>
@@ -4954,9 +5004,9 @@
       </c>
     </row>
     <row r="58" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN58" s="75"/>
-      <c r="AO58" s="97"/>
-      <c r="AP58" s="77"/>
+      <c r="AN58" s="84"/>
+      <c r="AO58" s="86"/>
+      <c r="AP58" s="88"/>
       <c r="AQ58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4965,20 +5015,20 @@
       </c>
     </row>
     <row r="59" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN59" s="74" t="s">
+      <c r="AN59" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="AO59" s="80" t="s">
+      <c r="AO59" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="AP59" s="76"/>
+      <c r="AP59" s="87"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="2"/>
     </row>
     <row r="60" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN60" s="75"/>
-      <c r="AO60" s="97"/>
-      <c r="AP60" s="77"/>
+      <c r="AN60" s="84"/>
+      <c r="AO60" s="86"/>
+      <c r="AP60" s="88"/>
       <c r="AQ60" s="1" t="s">
         <v>4</v>
       </c>
@@ -4987,9 +5037,9 @@
       </c>
     </row>
     <row r="61" spans="25:45" x14ac:dyDescent="0.3">
-      <c r="AN61" s="75"/>
-      <c r="AO61" s="97"/>
-      <c r="AP61" s="77"/>
+      <c r="AN61" s="84"/>
+      <c r="AO61" s="86"/>
+      <c r="AP61" s="88"/>
       <c r="AQ61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4999,25 +5049,115 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="AN59:AN61"/>
-    <mergeCell ref="AO59:AO61"/>
-    <mergeCell ref="AP59:AP61"/>
-    <mergeCell ref="AN53:AN55"/>
-    <mergeCell ref="AO53:AO55"/>
-    <mergeCell ref="AP53:AP55"/>
-    <mergeCell ref="AN56:AN58"/>
-    <mergeCell ref="AO56:AO58"/>
-    <mergeCell ref="AP56:AP58"/>
-    <mergeCell ref="AO47:AO49"/>
-    <mergeCell ref="AP47:AP49"/>
-    <mergeCell ref="AN50:AN52"/>
-    <mergeCell ref="AO50:AO52"/>
-    <mergeCell ref="AP50:AP52"/>
-    <mergeCell ref="AO41:AO43"/>
-    <mergeCell ref="AP41:AP43"/>
-    <mergeCell ref="AN44:AN46"/>
-    <mergeCell ref="AO44:AO46"/>
-    <mergeCell ref="AP44:AP46"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AO6:AO8"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AO27:AO29"/>
+    <mergeCell ref="AO12:AO14"/>
+    <mergeCell ref="AO15:AO17"/>
+    <mergeCell ref="AO18:AO20"/>
+    <mergeCell ref="AO21:AO23"/>
+    <mergeCell ref="AO24:AO26"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AN12:AN14"/>
+    <mergeCell ref="AN15:AN17"/>
+    <mergeCell ref="AN18:AN20"/>
+    <mergeCell ref="AN21:AN23"/>
+    <mergeCell ref="AN24:AN26"/>
+    <mergeCell ref="AN27:AN29"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AP6:AP8"/>
+    <mergeCell ref="AP9:AP11"/>
+    <mergeCell ref="AP12:AP14"/>
+    <mergeCell ref="AP15:AP17"/>
+    <mergeCell ref="AP18:AP20"/>
+    <mergeCell ref="AP21:AP23"/>
+    <mergeCell ref="AP24:AP26"/>
+    <mergeCell ref="AP27:AP29"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="AA45:AA46"/>
+    <mergeCell ref="AB45:AB46"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="AB41:AB42"/>
     <mergeCell ref="AO35:AO37"/>
     <mergeCell ref="AP35:AP37"/>
     <mergeCell ref="AN38:AN40"/>
@@ -5042,115 +5182,25 @@
     <mergeCell ref="Z43:Z44"/>
     <mergeCell ref="AA43:AA44"/>
     <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="Y45:Y46"/>
-    <mergeCell ref="Z45:Z46"/>
-    <mergeCell ref="AA45:AA46"/>
-    <mergeCell ref="AB45:AB46"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="AB39:AB40"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="AB41:AB42"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AP6:AP8"/>
-    <mergeCell ref="AP9:AP11"/>
-    <mergeCell ref="AP12:AP14"/>
-    <mergeCell ref="AP15:AP17"/>
-    <mergeCell ref="AP18:AP20"/>
-    <mergeCell ref="AP21:AP23"/>
-    <mergeCell ref="AP24:AP26"/>
-    <mergeCell ref="AP27:AP29"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AN6:AN8"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AN12:AN14"/>
-    <mergeCell ref="AN15:AN17"/>
-    <mergeCell ref="AN18:AN20"/>
-    <mergeCell ref="AN21:AN23"/>
-    <mergeCell ref="AN24:AN26"/>
-    <mergeCell ref="AN27:AN29"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AO6:AO8"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AO27:AO29"/>
-    <mergeCell ref="AO12:AO14"/>
-    <mergeCell ref="AO15:AO17"/>
-    <mergeCell ref="AO18:AO20"/>
-    <mergeCell ref="AO21:AO23"/>
-    <mergeCell ref="AO24:AO26"/>
+    <mergeCell ref="AO47:AO49"/>
+    <mergeCell ref="AP47:AP49"/>
+    <mergeCell ref="AN50:AN52"/>
+    <mergeCell ref="AO50:AO52"/>
+    <mergeCell ref="AP50:AP52"/>
+    <mergeCell ref="AO41:AO43"/>
+    <mergeCell ref="AP41:AP43"/>
+    <mergeCell ref="AN44:AN46"/>
+    <mergeCell ref="AO44:AO46"/>
+    <mergeCell ref="AP44:AP46"/>
+    <mergeCell ref="AN59:AN61"/>
+    <mergeCell ref="AO59:AO61"/>
+    <mergeCell ref="AP59:AP61"/>
+    <mergeCell ref="AN53:AN55"/>
+    <mergeCell ref="AO53:AO55"/>
+    <mergeCell ref="AP53:AP55"/>
+    <mergeCell ref="AN56:AN58"/>
+    <mergeCell ref="AO56:AO58"/>
+    <mergeCell ref="AP56:AP58"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5265,10 +5315,10 @@
       </c>
     </row>
     <row r="7" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="83" t="s">
         <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -5287,16 +5337,16 @@
       <c r="K7" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S7" s="81" t="s">
+      <c r="S7" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="74" t="s">
+      <c r="T7" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="81">
+      <c r="U7" s="106">
         <v>1</v>
       </c>
-      <c r="V7" s="81">
+      <c r="V7" s="106">
         <v>12</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -5305,10 +5355,10 @@
       <c r="X7" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="AF7" s="74" t="s">
+      <c r="AF7" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="AG7" s="74" t="s">
+      <c r="AG7" s="83" t="s">
         <v>109</v>
       </c>
       <c r="AH7" s="1" t="s">
@@ -5325,8 +5375,8 @@
       </c>
     </row>
     <row r="8" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5343,18 +5393,18 @@
       <c r="K8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="98"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
       <c r="AH8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5369,8 +5419,8 @@
       </c>
     </row>
     <row r="9" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5387,18 +5437,18 @@
       <c r="K9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="99"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X9" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
       <c r="AH9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5463,10 @@
       </c>
     </row>
     <row r="10" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="89" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -5435,16 +5485,16 @@
       <c r="K10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="100" t="s">
+      <c r="S10" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="T10" s="93" t="s">
+      <c r="T10" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="81">
+      <c r="U10" s="106">
         <v>11</v>
       </c>
-      <c r="V10" s="81">
+      <c r="V10" s="106">
         <v>7</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -5453,10 +5503,10 @@
       <c r="X10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF10" s="74" t="s">
+      <c r="AF10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="AG10" s="93" t="s">
+      <c r="AG10" s="89" t="s">
         <v>49</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -5473,8 +5523,8 @@
       </c>
     </row>
     <row r="11" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E11" s="75"/>
-      <c r="F11" s="94"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5491,18 +5541,18 @@
       <c r="K11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="101"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="94"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="90"/>
       <c r="AH11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5517,8 +5567,8 @@
       </c>
     </row>
     <row r="12" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E12" s="75"/>
-      <c r="F12" s="94"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5535,18 +5585,18 @@
       <c r="K12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="102"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
       <c r="W12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="94"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="90"/>
       <c r="AH12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5561,10 +5611,10 @@
       </c>
     </row>
     <row r="13" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="89" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5583,16 +5633,16 @@
       <c r="K13" s="4">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="S13" s="103" t="s">
+      <c r="S13" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="T13" s="106" t="s">
+      <c r="T13" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="U13" s="103">
+      <c r="U13" s="109">
         <v>8</v>
       </c>
-      <c r="V13" s="103">
+      <c r="V13" s="109">
         <v>1</v>
       </c>
       <c r="W13" s="39" t="s">
@@ -5601,10 +5651,10 @@
       <c r="X13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="74" t="s">
+      <c r="AF13" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="AG13" s="93" t="s">
+      <c r="AG13" s="89" t="s">
         <v>112</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -5621,8 +5671,8 @@
       </c>
     </row>
     <row r="14" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E14" s="75"/>
-      <c r="F14" s="94"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5639,18 +5689,18 @@
       <c r="K14" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="104"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
       <c r="W14" s="39" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="94"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="90"/>
       <c r="AH14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5665,8 +5715,8 @@
       </c>
     </row>
     <row r="15" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E15" s="75"/>
-      <c r="F15" s="94"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5683,18 +5733,18 @@
       <c r="K15" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="105"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="39" t="s">
         <v>5</v>
       </c>
       <c r="X15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="94"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="90"/>
       <c r="AH15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5709,10 +5759,10 @@
       </c>
     </row>
     <row r="16" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="85" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -5731,16 +5781,16 @@
       <c r="K16" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="100" t="s">
+      <c r="S16" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="80" t="s">
+      <c r="T16" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="U16" s="81">
+      <c r="U16" s="106">
         <v>2</v>
       </c>
-      <c r="V16" s="81">
+      <c r="V16" s="106">
         <v>25</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -5749,10 +5799,10 @@
       <c r="X16" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF16" s="74" t="s">
+      <c r="AF16" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="AG16" s="80" t="s">
+      <c r="AG16" s="85" t="s">
         <v>116</v>
       </c>
       <c r="AH16" s="1" t="s">
@@ -5769,8 +5819,8 @@
       </c>
     </row>
     <row r="17" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E17" s="75"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5787,18 +5837,18 @@
       <c r="K17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="S17" s="101"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
       <c r="W17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X17" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="97"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="86"/>
       <c r="AH17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5813,8 +5863,8 @@
       </c>
     </row>
     <row r="18" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E18" s="75"/>
-      <c r="F18" s="97"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
@@ -5831,18 +5881,18 @@
       <c r="K18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="S18" s="102"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
       <c r="W18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X18" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="97"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="86"/>
       <c r="AH18" s="1" t="s">
         <v>5</v>
       </c>
@@ -5857,10 +5907,10 @@
       </c>
     </row>
     <row r="19" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="85" t="s">
         <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -5879,16 +5929,16 @@
       <c r="K19" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="S19" s="100" t="s">
+      <c r="S19" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="T19" s="80" t="s">
+      <c r="T19" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="81">
+      <c r="U19" s="106">
         <v>16</v>
       </c>
-      <c r="V19" s="81">
+      <c r="V19" s="106">
         <v>2</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -5897,10 +5947,10 @@
       <c r="X19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF19" s="74" t="s">
+      <c r="AF19" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="AG19" s="80" t="s">
+      <c r="AG19" s="85" t="s">
         <v>116</v>
       </c>
       <c r="AH19" s="1" t="s">
@@ -5917,8 +5967,8 @@
       </c>
     </row>
     <row r="20" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E20" s="75"/>
-      <c r="F20" s="97"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
@@ -5935,18 +5985,18 @@
       <c r="K20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="101"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
       <c r="W20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="97"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="86"/>
       <c r="AH20" s="1" t="s">
         <v>4</v>
       </c>
@@ -5961,8 +6011,8 @@
       </c>
     </row>
     <row r="21" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E21" s="75"/>
-      <c r="F21" s="97"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
@@ -5979,18 +6029,18 @@
       <c r="K21" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="102"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
       <c r="W21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="97"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="86"/>
       <c r="AH21" s="1" t="s">
         <v>5</v>
       </c>
@@ -6005,10 +6055,10 @@
       </c>
     </row>
     <row r="22" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="85" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -6027,16 +6077,16 @@
       <c r="K22" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="S22" s="100" t="s">
+      <c r="S22" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="T22" s="74" t="s">
+      <c r="T22" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="U22" s="81">
+      <c r="U22" s="106">
         <v>12</v>
       </c>
-      <c r="V22" s="81">
+      <c r="V22" s="106">
         <v>5</v>
       </c>
       <c r="W22" s="1" t="s">
@@ -6045,10 +6095,10 @@
       <c r="X22" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF22" s="74" t="s">
+      <c r="AF22" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="AG22" s="80" t="s">
+      <c r="AG22" s="85" t="s">
         <v>116</v>
       </c>
       <c r="AH22" s="1" t="s">
@@ -6065,8 +6115,8 @@
       </c>
     </row>
     <row r="23" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E23" s="75"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
@@ -6083,18 +6133,18 @@
       <c r="K23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
       <c r="W23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X23" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="97"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="86"/>
       <c r="AH23" s="1" t="s">
         <v>4</v>
       </c>
@@ -6109,8 +6159,8 @@
       </c>
     </row>
     <row r="24" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E24" s="75"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
@@ -6127,18 +6177,18 @@
       <c r="K24" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="102"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
       <c r="W24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="97"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="86"/>
       <c r="AH24" s="1" t="s">
         <v>5</v>
       </c>
@@ -6153,10 +6203,10 @@
       </c>
     </row>
     <row r="25" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="87" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -6175,16 +6225,16 @@
       <c r="K25" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S25" s="81" t="s">
+      <c r="S25" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="T25" s="74" t="s">
+      <c r="T25" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="U25" s="81">
+      <c r="U25" s="106">
         <v>3</v>
       </c>
-      <c r="V25" s="81">
+      <c r="V25" s="106">
         <v>10</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -6193,10 +6243,10 @@
       <c r="X25" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AF25" s="74" t="s">
+      <c r="AF25" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AG25" s="76" t="s">
+      <c r="AG25" s="87" t="s">
         <v>83</v>
       </c>
       <c r="AH25" s="1" t="s">
@@ -6213,8 +6263,8 @@
       </c>
     </row>
     <row r="26" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E26" s="75"/>
-      <c r="F26" s="77"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="1" t="s">
         <v>4</v>
       </c>
@@ -6231,18 +6281,18 @@
       <c r="K26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="S26" s="98"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
       <c r="W26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X26" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="77"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="88"/>
       <c r="AH26" s="1" t="s">
         <v>4</v>
       </c>
@@ -6257,8 +6307,8 @@
       </c>
     </row>
     <row r="27" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="E27" s="75"/>
-      <c r="F27" s="77"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
@@ -6275,18 +6325,18 @@
       <c r="K27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="S27" s="99"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
       <c r="W27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X27" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="77"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="88"/>
       <c r="AH27" s="1" t="s">
         <v>5</v>
       </c>
@@ -6301,16 +6351,16 @@
       </c>
     </row>
     <row r="28" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="S28" s="74" t="s">
+      <c r="S28" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="T28" s="74" t="s">
+      <c r="T28" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="U28" s="81">
+      <c r="U28" s="106">
         <v>9</v>
       </c>
-      <c r="V28" s="81">
+      <c r="V28" s="106">
         <v>15</v>
       </c>
       <c r="W28" s="1" t="s">
@@ -6321,10 +6371,10 @@
       </c>
     </row>
     <row r="29" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
       <c r="W29" s="1" t="s">
         <v>4</v>
       </c>
@@ -6333,10 +6383,10 @@
       </c>
     </row>
     <row r="30" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
       <c r="W30" s="1" t="s">
         <v>5</v>
       </c>
@@ -6749,6 +6799,58 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="U22:U24"/>
+    <mergeCell ref="V22:V24"/>
     <mergeCell ref="U25:U27"/>
     <mergeCell ref="V25:V27"/>
     <mergeCell ref="S28:S30"/>
@@ -6757,58 +6859,6 @@
     <mergeCell ref="V28:V30"/>
     <mergeCell ref="S25:S27"/>
     <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="U22:U24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AG25:AG27"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AG22:AG24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6819,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB196867-47AC-47C9-99A7-7DC2855A3DB0}">
   <dimension ref="P3:BC35"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV22" sqref="AV22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6951,10 +7001,10 @@
       </c>
     </row>
     <row r="4" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="83" t="s">
         <v>109</v>
       </c>
       <c r="R4" s="13" t="s">
@@ -7033,10 +7083,10 @@
         <v>0.24314206618849862</v>
       </c>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="74" t="s">
+      <c r="AO4" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="AP4" s="74" t="s">
+      <c r="AP4" s="83" t="s">
         <v>109</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -7062,8 +7112,8 @@
       </c>
     </row>
     <row r="5" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
       <c r="R5" s="13" t="s">
         <v>4</v>
       </c>
@@ -7140,8 +7190,8 @@
         <v>0.22198333333333334</v>
       </c>
       <c r="AN5" s="16"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="75"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
       <c r="AQ5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7165,8 +7215,8 @@
       </c>
     </row>
     <row r="6" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="13" t="s">
         <v>5</v>
       </c>
@@ -7242,8 +7292,8 @@
         <v>0.23780616666666668</v>
       </c>
       <c r="AN6" s="16"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
       <c r="AQ6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7267,10 +7317,10 @@
       </c>
     </row>
     <row r="7" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P7" s="76" t="s">
+      <c r="P7" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="Q7" s="80" t="s">
+      <c r="Q7" s="85" t="s">
         <v>49</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -7349,10 +7399,10 @@
         <v>5.7420064419828769E-2</v>
       </c>
       <c r="AN7" s="16"/>
-      <c r="AO7" s="74" t="s">
+      <c r="AO7" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="AP7" s="93" t="s">
+      <c r="AP7" s="89" t="s">
         <v>49</v>
       </c>
       <c r="AQ7" s="1" t="s">
@@ -7378,8 +7428,8 @@
       </c>
     </row>
     <row r="8" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P8" s="77"/>
-      <c r="Q8" s="97"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="86"/>
       <c r="R8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7456,8 +7506,8 @@
         <v>6.7383333333333337E-2</v>
       </c>
       <c r="AN8" s="16"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="94"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="90"/>
       <c r="AQ8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7481,8 +7531,8 @@
       </c>
     </row>
     <row r="9" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P9" s="77"/>
-      <c r="Q9" s="97"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="86"/>
       <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
@@ -7559,8 +7609,8 @@
         <v>6.6449999999999995E-2</v>
       </c>
       <c r="AN9" s="16"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="94"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="90"/>
       <c r="AQ9" s="1" t="s">
         <v>5</v>
       </c>
@@ -7584,10 +7634,10 @@
       </c>
     </row>
     <row r="10" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="Q10" s="80" t="s">
+      <c r="Q10" s="85" t="s">
         <v>112</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -7666,10 +7716,10 @@
         <v>3.3380274344129565E-3</v>
       </c>
       <c r="AN10" s="16"/>
-      <c r="AO10" s="74" t="s">
+      <c r="AO10" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="AP10" s="93" t="s">
+      <c r="AP10" s="89" t="s">
         <v>112</v>
       </c>
       <c r="AQ10" s="1" t="s">
@@ -7695,8 +7745,8 @@
       </c>
     </row>
     <row r="11" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P11" s="77"/>
-      <c r="Q11" s="97"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="86"/>
       <c r="R11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7773,8 +7823,8 @@
         <v>2.3916666666666669E-2</v>
       </c>
       <c r="AN11" s="16"/>
-      <c r="AO11" s="75"/>
-      <c r="AP11" s="94"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="90"/>
       <c r="AQ11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7798,8 +7848,8 @@
       </c>
     </row>
     <row r="12" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P12" s="77"/>
-      <c r="Q12" s="97"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="86"/>
       <c r="R12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7876,8 +7926,8 @@
         <v>4.6116666666666667E-2</v>
       </c>
       <c r="AN12" s="16"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="94"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="90"/>
       <c r="AQ12" s="1" t="s">
         <v>5</v>
       </c>
@@ -7901,10 +7951,10 @@
       </c>
     </row>
     <row r="13" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P13" s="76" t="s">
+      <c r="P13" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="Q13" s="80" t="s">
+      <c r="Q13" s="85" t="s">
         <v>116</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -7983,10 +8033,10 @@
         <v>8.0596521667286397E-2</v>
       </c>
       <c r="AN13" s="16"/>
-      <c r="AO13" s="74" t="s">
+      <c r="AO13" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="AP13" s="80" t="s">
+      <c r="AP13" s="85" t="s">
         <v>116</v>
       </c>
       <c r="AQ13" s="1" t="s">
@@ -8015,8 +8065,8 @@
       </c>
     </row>
     <row r="14" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P14" s="77"/>
-      <c r="Q14" s="97"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="86"/>
       <c r="R14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8093,8 +8143,8 @@
         <v>0.45019999999999993</v>
       </c>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="97"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="86"/>
       <c r="AQ14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8121,8 +8171,8 @@
       </c>
     </row>
     <row r="15" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P15" s="77"/>
-      <c r="Q15" s="97"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="86"/>
       <c r="R15" s="1" t="s">
         <v>5</v>
       </c>
@@ -8199,8 +8249,8 @@
         <v>0.46583905617186111</v>
       </c>
       <c r="AN15" s="16"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="97"/>
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="86"/>
       <c r="AQ15" s="1" t="s">
         <v>5</v>
       </c>
@@ -8227,10 +8277,10 @@
       </c>
     </row>
     <row r="16" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P16" s="76" t="s">
+      <c r="P16" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="Q16" s="80" t="s">
+      <c r="Q16" s="85" t="s">
         <v>116</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -8309,10 +8359,10 @@
         <v>5.5839682705353996E-3</v>
       </c>
       <c r="AN16" s="16"/>
-      <c r="AO16" s="74" t="s">
+      <c r="AO16" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="AP16" s="80" t="s">
+      <c r="AP16" s="85" t="s">
         <v>116</v>
       </c>
       <c r="AQ16" s="1" t="s">
@@ -8338,8 +8388,8 @@
       </c>
     </row>
     <row r="17" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P17" s="77"/>
-      <c r="Q17" s="97"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="86"/>
       <c r="R17" s="1" t="s">
         <v>4</v>
       </c>
@@ -8416,8 +8466,8 @@
         <v>2.799145299145133E-3</v>
       </c>
       <c r="AN17" s="16"/>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="97"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="86"/>
       <c r="AQ17" s="1" t="s">
         <v>4</v>
       </c>
@@ -8441,8 +8491,8 @@
       </c>
     </row>
     <row r="18" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P18" s="77"/>
-      <c r="Q18" s="97"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="86"/>
       <c r="R18" s="1" t="s">
         <v>5</v>
       </c>
@@ -8519,8 +8569,8 @@
         <v>6.4432989690722357E-3</v>
       </c>
       <c r="AN18" s="16"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="97"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="86"/>
       <c r="AQ18" s="1" t="s">
         <v>5</v>
       </c>
@@ -8547,10 +8597,10 @@
       </c>
     </row>
     <row r="19" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P19" s="74" t="s">
+      <c r="P19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="Q19" s="80" t="s">
+      <c r="Q19" s="85" t="s">
         <v>116</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -8629,10 +8679,10 @@
         <v>1.9443216968625703E-2</v>
       </c>
       <c r="AN19" s="16"/>
-      <c r="AO19" s="74" t="s">
+      <c r="AO19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="AP19" s="80" t="s">
+      <c r="AP19" s="85" t="s">
         <v>116</v>
       </c>
       <c r="AQ19" s="1" t="s">
@@ -8658,8 +8708,8 @@
       </c>
     </row>
     <row r="20" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P20" s="75"/>
-      <c r="Q20" s="97"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="86"/>
       <c r="R20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8736,8 +8786,8 @@
         <v>3.6270000000000004E-2</v>
       </c>
       <c r="AN20" s="16"/>
-      <c r="AO20" s="75"/>
-      <c r="AP20" s="97"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="86"/>
       <c r="AQ20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8761,8 +8811,8 @@
       </c>
     </row>
     <row r="21" spans="16:55" x14ac:dyDescent="0.3">
-      <c r="P21" s="75"/>
-      <c r="Q21" s="97"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="86"/>
       <c r="R21" s="1" t="s">
         <v>5</v>
       </c>
@@ -8839,8 +8889,8 @@
         <v>7.1650000000000005E-2</v>
       </c>
       <c r="AN21" s="16"/>
-      <c r="AO21" s="75"/>
-      <c r="AP21" s="97"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="86"/>
       <c r="AQ21" s="1" t="s">
         <v>5</v>
       </c>
@@ -8879,10 +8929,10 @@
         <v>3.3380274344129565E-3</v>
       </c>
       <c r="AN22" s="16"/>
-      <c r="AO22" s="110" t="s">
+      <c r="AO22" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="AP22" s="110" t="s">
+      <c r="AP22" s="119" t="s">
         <v>83</v>
       </c>
       <c r="AQ22" s="43" t="s">
@@ -8907,8 +8957,8 @@
         <f>MIN(AM5,AM8,AM11,AM14,AM17,AM20)</f>
         <v>2.799145299145133E-3</v>
       </c>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="111"/>
+      <c r="AO23" s="120"/>
+      <c r="AP23" s="120"/>
       <c r="AQ23" s="43" t="s">
         <v>4</v>
       </c>
@@ -8930,8 +8980,8 @@
         <f>MIN(AM6,AM9,AM12,AM15,AM18,AM21)</f>
         <v>6.4432989690722357E-3</v>
       </c>
-      <c r="AO24" s="112"/>
-      <c r="AP24" s="112"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
       <c r="AQ24" s="43" t="s">
         <v>5</v>
       </c>
@@ -8942,10 +8992,10 @@
       <c r="AT24" s="43"/>
     </row>
     <row r="33" spans="17:34" x14ac:dyDescent="0.3">
-      <c r="Q33" s="108" t="s">
+      <c r="Q33" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="R33" s="108" t="s">
+      <c r="R33" s="117" t="s">
         <v>83</v>
       </c>
       <c r="S33" s="43" t="s">
@@ -8978,8 +9028,8 @@
       </c>
     </row>
     <row r="34" spans="17:34" x14ac:dyDescent="0.3">
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
       <c r="S34" s="43" t="s">
         <v>4</v>
       </c>
@@ -9010,8 +9060,8 @@
       </c>
     </row>
     <row r="35" spans="17:34" x14ac:dyDescent="0.3">
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
       <c r="S35" s="43" t="s">
         <v>5</v>
       </c>
@@ -9043,12 +9093,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
     <mergeCell ref="Q33:Q35"/>
     <mergeCell ref="R33:R35"/>
     <mergeCell ref="AO4:AO6"/>
@@ -9065,12 +9115,12 @@
     <mergeCell ref="AP16:AP18"/>
     <mergeCell ref="AO19:AO21"/>
     <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9081,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB571FB-D487-4A6D-8F6B-99C559F93DE5}">
   <dimension ref="G9:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13:AI15"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -9184,10 +9234,10 @@
       </c>
     </row>
     <row r="10" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="83" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -9251,16 +9301,16 @@
         <f t="shared" ref="Z10:Z33" si="3">(T10-N10)/N10</f>
         <v>#REF!</v>
       </c>
-      <c r="AD10" s="81" t="s">
+      <c r="AD10" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="AE10" s="74" t="s">
+      <c r="AE10" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="AF10" s="81">
+      <c r="AF10" s="106">
         <v>1</v>
       </c>
-      <c r="AG10" s="81">
+      <c r="AG10" s="106">
         <v>12</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -9283,8 +9333,8 @@
       </c>
     </row>
     <row r="11" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G11" s="98"/>
-      <c r="H11" s="75"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
@@ -9346,10 +9396,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="98"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
       <c r="AH11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9373,8 +9423,8 @@
       </c>
     </row>
     <row r="12" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G12" s="99"/>
-      <c r="H12" s="75"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="13" t="s">
         <v>5</v>
       </c>
@@ -9435,10 +9485,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
       <c r="AH12" s="1" t="s">
         <v>5</v>
       </c>
@@ -9463,10 +9513,10 @@
       </c>
     </row>
     <row r="13" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="89" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -9530,16 +9580,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD13" s="100" t="s">
+      <c r="AD13" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="93" t="s">
+      <c r="AE13" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" s="81">
+      <c r="AF13" s="106">
         <v>11</v>
       </c>
-      <c r="AG13" s="81">
+      <c r="AG13" s="106">
         <v>7</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -9566,8 +9616,8 @@
       </c>
     </row>
     <row r="14" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G14" s="101"/>
-      <c r="H14" s="94"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="1" t="s">
         <v>4</v>
       </c>
@@ -9629,10 +9679,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="98"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
       <c r="AH14" s="1" t="s">
         <v>4</v>
       </c>
@@ -9657,8 +9707,8 @@
       </c>
     </row>
     <row r="15" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G15" s="102"/>
-      <c r="H15" s="94"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="1" t="s">
         <v>5</v>
       </c>
@@ -9720,10 +9770,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
       <c r="AH15" s="1" t="s">
         <v>5</v>
       </c>
@@ -9748,205 +9798,205 @@
       </c>
     </row>
     <row r="16" spans="7:50" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="I16" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="125" t="e">
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="80" t="e">
         <f>(Q16+R16+S16+#REF!+O16+P16)/6</f>
         <v>#REF!</v>
       </c>
-      <c r="U16" s="126" t="e">
+      <c r="U16" s="81" t="e">
         <f>(T16-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V16" s="126" t="e">
+      <c r="V16" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="W16" s="126" t="e">
+      <c r="W16" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="X16" s="126" t="e">
+      <c r="X16" s="81" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y16" s="126" t="e">
+      <c r="Y16" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z16" s="126" t="e">
+      <c r="Z16" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD16" s="113" t="s">
+      <c r="AD16" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="AE16" s="114" t="s">
+      <c r="AE16" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="AF16" s="113">
+      <c r="AF16" s="122">
         <v>8</v>
       </c>
-      <c r="AG16" s="113">
+      <c r="AG16" s="122">
         <v>1</v>
       </c>
-      <c r="AH16" s="115" t="s">
+      <c r="AH16" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
       <c r="AX16">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="115" t="s">
+      <c r="G17" s="123"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="125" t="e">
+      <c r="J17" s="77"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="80" t="e">
         <f>(Q17+R17+S17+#REF!+O17+P17)/6</f>
         <v>#REF!</v>
       </c>
-      <c r="U17" s="126" t="e">
+      <c r="U17" s="81" t="e">
         <f>(T17-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V17" s="126" t="e">
+      <c r="V17" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="W17" s="126" t="e">
+      <c r="W17" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="X17" s="126" t="e">
+      <c r="X17" s="81" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y17" s="126" t="e">
+      <c r="Y17" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z17" s="126" t="e">
+      <c r="Z17" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="115" t="s">
+      <c r="AD17" s="123"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
       <c r="AX17">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="115" t="s">
+      <c r="G18" s="124"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="125" t="e">
+      <c r="J18" s="77"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="80" t="e">
         <f>(Q18+R18+S18+#REF!+O18+P18)/6</f>
         <v>#REF!</v>
       </c>
-      <c r="U18" s="126" t="e">
+      <c r="U18" s="81" t="e">
         <f>(T18-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V18" s="126" t="e">
+      <c r="V18" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="W18" s="126" t="e">
+      <c r="W18" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="X18" s="126" t="e">
+      <c r="X18" s="81" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="126" t="e">
+      <c r="Y18" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z18" s="126" t="e">
+      <c r="Z18" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="115" t="s">
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AI18" s="116"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
       <c r="AX18">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="H19" s="85" t="s">
         <v>131</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -10010,16 +10060,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD19" s="100" t="s">
+      <c r="AD19" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="AE19" s="80" t="s">
+      <c r="AE19" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="AF19" s="81">
+      <c r="AF19" s="106">
         <v>2</v>
       </c>
-      <c r="AG19" s="81">
+      <c r="AG19" s="106">
         <v>25</v>
       </c>
       <c r="AH19" s="1" t="s">
@@ -10046,8 +10096,8 @@
       </c>
     </row>
     <row r="20" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G20" s="101"/>
-      <c r="H20" s="97"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="1" t="s">
         <v>4</v>
       </c>
@@ -10109,10 +10159,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
       <c r="AH20" s="1" t="s">
         <v>4</v>
       </c>
@@ -10137,8 +10187,8 @@
       </c>
     </row>
     <row r="21" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G21" s="102"/>
-      <c r="H21" s="97"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="1" t="s">
         <v>5</v>
       </c>
@@ -10200,10 +10250,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="99"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
       <c r="AH21" s="1" t="s">
         <v>5</v>
       </c>
@@ -10228,10 +10278,10 @@
       </c>
     </row>
     <row r="22" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="85" t="s">
         <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -10295,16 +10345,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD22" s="100" t="s">
+      <c r="AD22" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="AE22" s="80" t="s">
+      <c r="AE22" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="AF22" s="81">
+      <c r="AF22" s="106">
         <v>16</v>
       </c>
-      <c r="AG22" s="81">
+      <c r="AG22" s="106">
         <v>2</v>
       </c>
       <c r="AH22" s="1" t="s">
@@ -10331,8 +10381,8 @@
       </c>
     </row>
     <row r="23" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G23" s="101"/>
-      <c r="H23" s="97"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
@@ -10394,10 +10444,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="98"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
       <c r="AH23" s="1" t="s">
         <v>4</v>
       </c>
@@ -10422,8 +10472,8 @@
       </c>
     </row>
     <row r="24" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G24" s="102"/>
-      <c r="H24" s="97"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="1" t="s">
         <v>5</v>
       </c>
@@ -10485,10 +10535,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
       <c r="AH24" s="1" t="s">
         <v>5</v>
       </c>
@@ -10513,10 +10563,10 @@
       </c>
     </row>
     <row r="25" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="89" t="s">
         <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -10580,16 +10630,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD25" s="100" t="s">
+      <c r="AD25" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="AE25" s="74" t="s">
+      <c r="AE25" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="AF25" s="81">
+      <c r="AF25" s="106">
         <v>12</v>
       </c>
-      <c r="AG25" s="81">
+      <c r="AG25" s="106">
         <v>5</v>
       </c>
       <c r="AH25" s="1" t="s">
@@ -10616,8 +10666,8 @@
       </c>
     </row>
     <row r="26" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G26" s="101"/>
-      <c r="H26" s="94"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="1" t="s">
         <v>4</v>
       </c>
@@ -10679,10 +10729,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
       <c r="AH26" s="1" t="s">
         <v>4</v>
       </c>
@@ -10707,8 +10757,8 @@
       </c>
     </row>
     <row r="27" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G27" s="102"/>
-      <c r="H27" s="94"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="1" t="s">
         <v>5</v>
       </c>
@@ -10770,10 +10820,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
+      <c r="AD27" s="114"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
       <c r="AH27" s="1" t="s">
         <v>5</v>
       </c>
@@ -10798,10 +10848,10 @@
       </c>
     </row>
     <row r="28" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="89" t="s">
         <v>227</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10865,16 +10915,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD28" s="81" t="s">
+      <c r="AD28" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="AE28" s="93" t="s">
+      <c r="AE28" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="AF28" s="81">
+      <c r="AF28" s="106">
         <v>3</v>
       </c>
-      <c r="AG28" s="81">
+      <c r="AG28" s="106">
         <v>10</v>
       </c>
       <c r="AH28" s="1" t="s">
@@ -10901,8 +10951,8 @@
       </c>
     </row>
     <row r="29" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G29" s="98"/>
-      <c r="H29" s="94"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="1" t="s">
         <v>4</v>
       </c>
@@ -10964,10 +11014,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="98"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
       <c r="AH29" s="1" t="s">
         <v>4</v>
       </c>
@@ -10992,8 +11042,8 @@
       </c>
     </row>
     <row r="30" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G30" s="99"/>
-      <c r="H30" s="94"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="1" t="s">
         <v>5</v>
       </c>
@@ -11055,10 +11105,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="99"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="108"/>
       <c r="AH30" s="1" t="s">
         <v>5</v>
       </c>
@@ -11083,10 +11133,10 @@
       </c>
     </row>
     <row r="31" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="74" t="s">
+      <c r="H31" s="83" t="s">
         <v>128</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -11150,16 +11200,16 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD31" s="74" t="s">
+      <c r="AD31" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="AE31" s="74" t="s">
+      <c r="AE31" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="AF31" s="81">
+      <c r="AF31" s="106">
         <v>9</v>
       </c>
-      <c r="AG31" s="81">
+      <c r="AG31" s="106">
         <v>15</v>
       </c>
       <c r="AH31" s="1" t="s">
@@ -11186,8 +11236,8 @@
       </c>
     </row>
     <row r="32" spans="7:50" x14ac:dyDescent="0.3">
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="1" t="s">
         <v>4</v>
       </c>
@@ -11249,10 +11299,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="107"/>
       <c r="AH32" s="1" t="s">
         <v>4</v>
       </c>
@@ -11273,8 +11323,8 @@
       </c>
     </row>
     <row r="33" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="1" t="s">
         <v>5</v>
       </c>
@@ -11336,10 +11386,10 @@
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="99"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
       <c r="AH33" s="1" t="s">
         <v>5</v>
       </c>
@@ -11361,12 +11411,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="AE28:AE30"/>
+    <mergeCell ref="AF28:AF30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AF31:AF33"/>
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AD10:AD12"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="G22:G24"/>
@@ -11377,48 +11453,299 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AD16:AD18"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AG25:AG27"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="AE28:AE30"/>
-    <mergeCell ref="AF28:AF30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AD31:AD33"/>
-    <mergeCell ref="AE31:AE33"/>
-    <mergeCell ref="AF31:AF33"/>
-    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0B53CE-EDA4-4899-970B-7A1D1571F9D4}">
+  <dimension ref="C2:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="129"/>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="132"/>
+      <c r="J6">
+        <v>0.1593</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="129"/>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="133"/>
+      <c r="J7">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="130">
+        <v>1</v>
+      </c>
+      <c r="I8" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8">
+        <v>0.19220000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="98"/>
+      <c r="D9" s="130">
+        <v>1</v>
+      </c>
+      <c r="I9" s="132"/>
+      <c r="J9">
+        <v>0.13869999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="98"/>
+      <c r="D10" s="130">
+        <v>1</v>
+      </c>
+      <c r="I10" s="133"/>
+      <c r="J10">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="130">
+        <v>1</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>0.95640000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="98"/>
+      <c r="D12" s="130">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I12" s="123"/>
+      <c r="J12">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="98"/>
+      <c r="D13" s="130">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I13" s="124"/>
+      <c r="J13">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="130">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="I14" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14">
+        <v>0.1777</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="135"/>
+      <c r="D15">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="I15" s="132"/>
+      <c r="J15">
+        <v>0.26569999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="135"/>
+      <c r="D16">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="I16" s="133"/>
+      <c r="J16">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I17" s="136" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="129"/>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="137"/>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="129"/>
+      <c r="D19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I19" s="138"/>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="130">
+        <v>1</v>
+      </c>
+      <c r="I20" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="98"/>
+      <c r="D21" s="130">
+        <v>1</v>
+      </c>
+      <c r="I21" s="137"/>
+      <c r="J21">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="98"/>
+      <c r="D22" s="130">
+        <v>1</v>
+      </c>
+      <c r="I22" s="138"/>
+      <c r="J22">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="137"/>
+      <c r="J24">
+        <v>0.56669999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="138"/>
+      <c r="J25">
+        <v>0.54530000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11568,26 +11895,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E07B6C-17A1-4746-AFA3-DE9662AB0ED9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEBF9A0-D8AF-401D-8305-002AE83BEF6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d835d5a0-5c76-401f-98b0-6878bdc80b19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11611,9 +11927,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEBF9A0-D8AF-401D-8305-002AE83BEF6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E07B6C-17A1-4746-AFA3-DE9662AB0ED9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d835d5a0-5c76-401f-98b0-6878bdc80b19"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>